--- a/08/Before_Soc_EEH2.xlsx
+++ b/08/Before_Soc_EEH2.xlsx
@@ -7,6 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Energy" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Entropy" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hurst" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,19 +17,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+  <si>
+    <t>ГЗ</t>
+  </si>
+  <si>
+    <t>ГЗ_end</t>
+  </si>
+  <si>
+    <t>Extract per1 SetValue_Start</t>
+  </si>
+  <si>
+    <t>Extract end</t>
+  </si>
+  <si>
+    <t>Show res of Extract</t>
+  </si>
+  <si>
+    <t>Contrib per1 SetValue_Start</t>
+  </si>
+  <si>
+    <t>Contrib per5 SetValue_Start</t>
+  </si>
+  <si>
+    <t>Contrib per5 ShowRes_Start</t>
+  </si>
+  <si>
+    <t>ShowGain</t>
+  </si>
+  <si>
+    <t>Contrib end</t>
+  </si>
+  <si>
+    <t>ГО</t>
+  </si>
+  <si>
+    <t>Заруба Кирилл</t>
+  </si>
+  <si>
+    <t>Рыжников Андрей</t>
+  </si>
+  <si>
+    <t>Гребенчук Сергей</t>
+  </si>
+  <si>
+    <t>Казаков Алексей</t>
+  </si>
+  <si>
+    <t>Наркунас Татьяна</t>
+  </si>
+  <si>
+    <t>Замятина Екатерина</t>
+  </si>
+  <si>
+    <t>Ермолова Марина</t>
+  </si>
+  <si>
+    <t>Лелякин Дмитрий</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +109,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -358,4 +432,3580 @@
   <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:AT11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:46">
+      <c r="C1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9055027024432867</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.972482615992111</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.942762355076313</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7650126303037023</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.030256187520064</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3217483721813123</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3959961936078277</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3815444652072533</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4822402470376164</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.457108046019213</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7980625006210362</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.9661666616400547</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.3720434704870104</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.06354231884349688</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2148481098378356</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1603083958219765</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.647780186907872</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.325272264005225</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.530297363748562</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.093045087970708</v>
+      </c>
+      <c r="W4" t="n">
+        <v>10.82497783910336</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5.196808259786453</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>7.356780338598381</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>31.50528623203725</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.3299689051909183</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2670211620682945</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2177624746654298</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.5416805570437445</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.3503747315138918</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.712406974824929</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2112500254751263</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.4789569397007169</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1.939278323035678</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.074797577713172</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2.139562861630745</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.418813827248772</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.3105109036403031</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.3946569506791032</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.869754381247365</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2380790630084871</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2377014651151724</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.07041559014947849</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>9.229916077496281</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.07897630422191008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.147297042153601</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.638099591299037</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.92388130018327</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5909624265780045</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6967317890261506</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12.3663351068835</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29.44804212091795</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.485691496663445</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.016281584680868</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.500365454147587</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.453449037459073</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.042796005736353</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.9936398647473519</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3526268639179335</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.7616168602266509</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5189684172497959</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.2151765771179073</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.4144194847462898</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.4073778321444425</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.591434622879957</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.626375256423868</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.999269848575764</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.206341239125043</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.4124333416494561</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.140375040407599</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.2717147131906763</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.1133438687598351</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.510610359569295</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.1321679445542659</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.2613489586679316</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.198717241796412</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.3012881533943501</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.6801062427189649</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.318477392881124</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.2794106905825912</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.3723917965099582</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.3382736685257611</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.1201848452624629</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.2190360186108448</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.215417695108111</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.163328382626642</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.1104605790726431</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.6558636437717625</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.1029727339991533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1054612976729365</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6025522970188997</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6590755071784984</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1375664569695008</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1341116823380976</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1232779897056865</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1296478691478507</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1125500035959235</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3523420830844748</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4088875498964102</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1516603874775672</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1757447215659223</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.1504257843601442</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1372052244337151</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2693457188404287</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2236599988387943</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.1513153129258688</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.157476571327693</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.1935748119925411</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1340546393233875</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.474281522464643</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.126939681595113</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.198186822892899</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2.5123696971662</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.119322078537816</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1441878213732607</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1399813997309491</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1406462307675606</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1290030659873034</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1663681360946385</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.137533405927206</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1284304810296846</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1256774854575824</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1375230040232003</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.137330435115702</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1270218832108152</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.4289182674716325</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.9660195314393965</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1406357739669067</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1174008590604762</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1324800985254258</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1607835141785445</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>2.005482218301007</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1024113432867234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0714631653795559</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3773385171447586</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.115719168140352</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.428135486867722</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2948670714085822</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2867705679883721</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3325632747399626</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.06854492382367776</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1785180272213989</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2224051595728039</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1808622909714035</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2722603002783718</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1202695834425814</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.09465434511849938</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1359783175068307</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1236637835245261</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.09739738273197278</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.07159489359801884</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.343854546643738</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.4086543059871678</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.3248017922114865</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.2309765410782281</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.365884398429416</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2.41955964764684</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.1433271303709047</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.1475879387495689</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.09673542012589741</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.09295823729367143</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.07712166365605182</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.09461465334180229</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.1040461136894599</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.1082897115560412</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.1181868519450269</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.2027779686739311</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.08725876270874179</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.1327249658893131</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.08486797353223474</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0838047318516157</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.09296328577638957</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.1048576760775616</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.1261067530753521</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.1236096262449978</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.1114158461084794</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.07870346971581471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06601876881812586</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.389080264522648</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.531147156427771</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4069833561794564</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3316426162403359</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2650877883436545</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1934293553216123</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2890933443896991</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2282307294491068</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.07876270040731594</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.265494274426554</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.151381715544486</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.512947696601966</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.3247120565260465</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.7015079853784285</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.7424878652312565</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.08364963765819655</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.1195628248661148</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.1734823180634487</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.2230064904052099</v>
+      </c>
+      <c r="W8" t="n">
+        <v>13.99977539869067</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.390709033533414</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5.331978249620481</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>10.8034002525844</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.1253488822905477</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.2123050936514748</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.269646585909634</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.4183480919474321</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.4173609011747025</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.563751311106806</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.09819312930846508</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.2948935829375197</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2.700498331571205</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.7055127193761942</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.4810029840452403</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.2523135752117881</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.4721619056192646</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.227293494726021</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.1597991365378899</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.5670467192147111</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.2310852022673186</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.3331304421048526</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>7.573898054981377</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.09331586743319931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07827123998226755</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.173491498007817</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.543482102993864</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3833139121439911</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.566579902553757</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6767337465271183</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2114561505762802</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.7719303501128307</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9583668575500365</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.139436667732612</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8289812694805035</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.356171968080162</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.391024005739203</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.3385786950653161</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.181439698143161</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.2422672268392063</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.078391067478047</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.892726007071737</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.747547279086567</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.721948060153526</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.379338209932904</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.612738761140075</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.489443592139404</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9.904588397615287</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>10.75555837650018</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.8747964010119752</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.6626950593739812</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.7415160440455999</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.1645841559671346</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.3967146266073837</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.3213383664629735</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.430837322748262</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.2036075083100884</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.6319431018406442</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.6591533631694876</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.4467074771141175</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.274626243680031</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.5084640859529433</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.424537477076279</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.7611566043573251</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>3.863838212698214</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.7531000796265871</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>3.1696752258984</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.2073099874544271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.06722675805278239</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.240440600577884</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.895386961869829</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2453015437522671</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2762708050776465</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2072754696237956</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2419221709258388</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.7114605101560036</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.091705350868515</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.56805869592573</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.473601467416466</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.071919040066799</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9968342352051029</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.2470406267749599</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4843738996716774</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4293001612474169</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.567044786363327</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4.062578572103901</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.103456556752582</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.8776415770863029</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.5941357804638</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.018902015890353</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.3516792232404878</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.5709053390556409</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.3596546294935293</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.2893098497452756</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.06225282713264894</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.06668387057187214</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.1214012325289678</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>5.172085235869891</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3718701772673659</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.2358630231926361</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.2264865993045811</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>2.913230019208649</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.4691729359371</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.1132216043693171</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.2147422707125081</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.08194398088186911</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.0529705779186351</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.08697289819446798</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.06153675853684201</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.05264341679235313</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1.080215890256663</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.09915013874569321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07720051758528707</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2137705392783081</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2529023521341619</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1184061605224856</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1251905735179072</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2128771550917775</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1092151123570766</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1241926762286387</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.132692485558785</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.1131197051065037</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.1242245089523254</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1472501127064866</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.1514827852409281</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.07489628748203073</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.1147132809687183</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.1184683738576076</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.1311858363762187</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.1612023126233998</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.1427174342272147</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.09390584411671041</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.6234565892307375</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.5512213131455455</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.2336753773786755</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.4581119716898325</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.2095074760072728</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.2095603545224156</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.1090347102614115</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.1487815113055171</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.0626540578626332</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.080489895841711</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.1011337582960965</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.07221233859174042</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.09554411840894092</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.2141918513197335</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.06845237696958714</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.09579999570629033</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.12435036018879</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.1211009374516182</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.07554740003960275</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.09787216947486749</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.0844946304836411</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.07708235841246233</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.5686416918422896</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.09054841224377194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:AT11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:46">
+      <c r="C1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.250304530277956</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.736141536127852</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.180574610980899</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.794262669456864</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.604123090042137</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.559217768337119</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.578108315153405</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.003059711386322</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.656215314689415</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.394068254689452</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.728462653988611</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.660079882778696</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7.09055590733328</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8.1012878140436</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7.204950421419066</v>
+      </c>
+      <c r="R4" t="n">
+        <v>8.393609666835971</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.085756058867581</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4.522683096046961</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4.947684777576895</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5.908131392177009</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3.842331760808036</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.999040028703805</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.333191213321644</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3.106025416107517</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6.99177420553529</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7.386814251253408</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.352494296756458</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.603856189774739</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>7.219115635878578</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6.442092528174101</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>8.333091625645029</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7.014203263472113</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>4.80734925564326</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>5.641917812062061</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>3.996943612611608</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>6.741006374930709</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>7.712477909696079</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6.452039332129551</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>3.159819919550312</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>7.192173177888817</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>7.396689831297151</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>6.333161760715648</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1.751314234755094</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>9.737371898273695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.09885926097065</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.576551413597</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.235221654779027</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.943872031546479</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.935571443765745</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.015593464137011</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.217958319057199</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.437664318422778</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.832696627799304</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.002597162790317</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.589612850914153</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.211096714287324</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.314011935875196</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8.681671799963761</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.16954781176995</v>
+      </c>
+      <c r="R5" t="n">
+        <v>8.129417336781843</v>
+      </c>
+      <c r="S5" t="n">
+        <v>9.23869705654532</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7.463834449350855</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6.864314256313429</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7.943860621081087</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.562573882958728</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.57685234695805</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.16815696068633</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7.278284787346699</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>7.645631483687645</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6.234120167580205</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.002888650392412</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9.008560615653726</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6.727920454563184</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6.929660875880878</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.07953894953179</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.27046528264602</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6.539241209280167</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>6.610860736232271</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>8.608253862533566</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>6.396966484354469</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>9.322672560762694</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>7.321928094887368</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9.312337478764615</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>7.649204770610804</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>9.404560132211959</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>6.507794640198703</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>8.397087833018308</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>10.18080578577977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.06753709514784</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.875652992631888</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.971728746718425</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.948336381125765</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.826940360769811</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.198669639987311</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.568480648275368</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.856890595608562</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.261331654642602</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.503235207532224</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.676150279570872</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.730426135651824</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8.407742854151302</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9.689706084627415</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.984375</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9.650586669148648</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7.884681098726061</v>
+      </c>
+      <c r="T6" t="n">
+        <v>8.810023200522403</v>
+      </c>
+      <c r="U6" t="n">
+        <v>8.045039215989615</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8.899774203089249</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.671110434826195</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.654874516941519</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4.096399933356056</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4.642223161014039</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.205745701670224</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.247927513443566</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.652817498834245</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.539158811108037</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>8.64661717964106</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>7.801988651207321</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>7.32750432387226</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6.667083051455081</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>6.810707442248736</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>7.357552004618105</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>8.746186468943037</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>6.768184324776914</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>7.863816430368153</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6.53025457988179</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8.266710548719782</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>7.877473854932773</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>8.199391699291731</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>5.954196310386873</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4.364712197289648</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>10.22052361337794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.18257941454316</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.974426766882411</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.290192431074544</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.953616436855254</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.830428858585329</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.623258572219298</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.231706073967217</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.195939852115433</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.39696648435447</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.789784284662096</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.124566873422674</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.021484954542523</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8.432248426145678</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8.691299397256969</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7.282747249309853</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8.345632171803281</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8.230247902372376</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8.439228146564325</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6.711407702290676</v>
+      </c>
+      <c r="V7" t="n">
+        <v>7.200809462969367</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.161832852421846</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8.438211809797197</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3.646644227497851</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3.917514896653691</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.448205872954251</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7.093409091335674</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.853270702489366</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8.113074007053671</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>6.614709844115218</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>6.794415866350121</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6.558675728785079</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6.356497312841634</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>7.09699816090941</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>6.419882552286613</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>8.31668272476462</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>6.848744744277086</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>8.566895365090989</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>7.047185967421226</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.62275107764053</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>8.784737571570087</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>8.081074987250535</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>6.802479847370959</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>9.208784532524048</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>10.08778491250724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.32406283203968</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.090607411892067</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.988036653818704</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.239833646367708</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.402009483127792</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.89468550747145</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.00811277143656</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.912352158507241</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.425007492413783</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.810707442248738</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.111118725587361</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.056081571748074</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.412454728152747</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7.782967621117871</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6.030295093837485</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.522475162355034</v>
+      </c>
+      <c r="S8" t="n">
+        <v>8.305343987406879</v>
+      </c>
+      <c r="T8" t="n">
+        <v>8.362395600330549</v>
+      </c>
+      <c r="U8" t="n">
+        <v>7.488138217273058</v>
+      </c>
+      <c r="V8" t="n">
+        <v>8.185029263366772</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3.634733737984031</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3.420488768399084</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3.456537868833236</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>4.671208693946953</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6.96161157851748</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8.157398574124359</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.308984089445455</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.401033910471743</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>7.027179292132419</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6.289566863880055</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>6.882643049361832</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6.278464292480902</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6.882186703810287</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>6.589413148542456</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>7.265474087321242</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>6.515562596873461</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>7.125530004750803</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6.348989133425302</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>8.60449853132129</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>7.466468601454986</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>8.378574809087077</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>6.796251032220846</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2.961758231919061</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>10.20410008485145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10.19077172411254</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.488544007479141</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.364150561771024</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.481153038007507</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.545563524820263</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.823424719061674</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.320966638764446</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.881430744447813</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.948807193433388</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.377210797228923</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.2572313051549</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.36013571882443</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6.510161901970417</v>
+      </c>
+      <c r="P9" t="n">
+        <v>8.483087338822207</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7.504770876535403</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9.233917673260517</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7.004628975527839</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6.064949795550622</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.793590607061577</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6.942019659082304</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3.319116314857276</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3.577007838217355</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5.090700762005818</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7.480039634452537</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>4.687916771361291</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6.795369543764402</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6.447767552822924</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.533933199757166</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>7.018155825964931</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.051163817323451</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>6.995723379454244</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6.923791693075652</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>8.512303510192776</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>7.646658505192246</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>7.326637361471387</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>7.128372284547866</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>6.920282085914287</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6.6724253419715</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.596475152804031</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>6.713984272149719</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>7.136788972254506</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>6.67131668097828</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>4.043868644971701</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>8.766490448478745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.999737769128613</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.533922396829629</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.721834354175031</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.867875482344142</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.454165808098552</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6.228889135058452</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.542007681679206</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.955454610527889</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.103274421493103</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.267742287287445</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6.101783580730781</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.307914426552837</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.822514277442016</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8.381524040196844</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6.376934426051952</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7.327227043598204</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.932159107052278</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4.76122383685703</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5.694860085557814</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6.479059336025107</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.613863996601369</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.338172981462136</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>7.265884191164958</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>7.125706980260011</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>7.267308025855513</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7.148925753238865</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.273461808426807</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8.184543473263931</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>7.127445219443184</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>5.373658939011879</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>7.588723402656007</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6.721640821133989</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>7.405496826118021</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>6.530209716589291</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>6.606292515310312</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>7.322597480242592</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>8.542375463820708</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>7.18982455888002</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8.695316767251024</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>7.029242604206928</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>9.527692816159066</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>8.316449577791619</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>4.571180246786176</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>9.051964667834165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10.26278512669417</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.69612782576924</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.924064799772731</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.576977058336793</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8.069313552367126</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.10185219789487</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.73911355458433</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.46546710964487</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7.38074198521855</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7.302812965847569</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.158856018305743</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.464435895137511</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7.848882422975569</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9.077006225244702</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.632818384390095</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7.431265755906974</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6.902334311654768</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7.367731278813374</v>
+      </c>
+      <c r="U11" t="n">
+        <v>7.759382477150538</v>
+      </c>
+      <c r="V11" t="n">
+        <v>8.846027023309171</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.718793659071933</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5.695290547544838</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.24770856709349</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>6.910228776650154</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7.057854445516407</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>6.767081617282463</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.749835700923703</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.659645607876246</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>6.906890595608536</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7.135662612462435</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>6.776397848332103</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7.22451150204845</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>6.918863237274603</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7.661205726812229</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>8.18873670332337</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>6.98945621368042</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>8.04368292095304</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>6.842582521971398</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9.671706084627404</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>8.454900825417793</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>8.721414014428444</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>7.888131914615226</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>6.300907355102782</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>10.05367893731633</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:AT11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:46">
+      <c r="C1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7699854072542962</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6543087887066078</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4989947205492941</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.633248995178689</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.570283205069863</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6577580137254259</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.571477809953184</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.577138761118252</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6252271196874757</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7043464511089488</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6252096637032772</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5941384241956332</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.5753398575210404</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6572736209202049</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.6505901186643729</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.5620233893914047</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.6581903061585721</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.5661354501764623</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.6436974452764458</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.5713124299052931</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.5761739641778487</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.5531511016264041</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.7203459533645497</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.5764472467007474</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.6162313442204579</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.6240569194450083</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.6687964004798767</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.6284280060064367</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.7195324383423162</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.6245415780885658</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.7261926705931097</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.6925385565474933</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.5985381045794468</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.6507188458649165</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.6091519062410766</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.6190326827702061</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.6102770520632318</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.6445172918074626</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.6194870063960091</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.6311173093369914</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.6076941857952409</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.629297637791041</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.5839147610524079</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.7382073494712085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6773052221006826</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5885213030238228</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5002256185787088</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5655936638310114</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6266762130646731</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6091522086217019</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5807553113880931</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6257432931732748</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.560879222453133</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.7003550436002942</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5772475066101928</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5715748932284792</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.5803407993353935</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.5642357982966214</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.5796476959194679</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.6048392781346219</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.6749993938686217</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5697041697146278</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.6347576938640994</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.6799041252048934</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.5768318767102372</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.5531358297868575</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.621496174368271</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.6905475381155074</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.6943051536596176</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.6309624287152845</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.6633505024891383</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.5916087495345974</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.618680968971138</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.6230615355266799</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.6833792833441434</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.6093628627993279</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.6258861817948832</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.6269071896364132</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.5982523373249385</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.6297869800784095</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.5888865595750643</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.623480950080923</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.5992659737477077</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.6613533530051297</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.5955270292191449</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.6289224347500992</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.5838800822397364</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.6608999114995117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6050090134895699</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5569314501763788</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4994122939321182</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5811679424855773</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5820442541782113</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6195916727375357</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6025006934305555</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6372810083053209</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5666228430712908</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5633367758746685</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5551886177432441</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5852809778351503</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.6031664470974242</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5851236857078606</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.6094086791655318</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5806392530090521</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5967294801919706</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5720895353543095</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.5694823285962908</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.5748378276252021</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.5768777986212027</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.5531535525343172</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.5740214190466706</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.5748021523642406</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.6178117503975</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.6642644172273372</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.5897293583850954</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.6585801426603652</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.5719259507826838</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.7075027594468685</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.5983933947878483</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.6098237700635769</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.6286225947133146</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.6027225235988886</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.5910354099627346</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.5989897999488072</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.6083125741096951</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.6204041704865526</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.6149728021143169</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.619816452792733</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.6076809722530195</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.6337208227709679</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.5839114418277717</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.6006409786094502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6178112987866432</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6261934699553194</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6925652567962493</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.562702941863567</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7052901848096518</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6369677955407762</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5705635189095571</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6579580646762009</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.652103578689321</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.576679143577759</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5775354271725833</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.576092900915808</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.6968181558729335</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.5670056113038302</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.6667599356293795</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.581063593076336</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5930920760289663</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.6433970963622561</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.6349904940991224</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.5631823734288141</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.6181999245389359</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.5556093637818852</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.6129406857222117</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.5668955614544878</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.6478614987933096</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.6240309051464311</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.5967259402343476</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.6061746677341829</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.6646414725857854</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.6491799673575794</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.6961428188592248</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.6390206596438676</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.6796215164322793</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.6358985351731615</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.6129536529418981</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.6199919629479504</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.626680622443005</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.6843223636450746</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.6168635103896092</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.5963617996663296</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.6059797975703134</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.6428650840762942</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.5925584728406105</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.6474042417061268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6530473532485855</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6946555838705153</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4980249780476983</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5679520846119852</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.6684900299404632</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5771602125231344</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5654027731068137</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6798081776642952</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5659072917221921</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.6707559188411401</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.6466258102911021</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.5650331633361545</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.5695249650634732</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.5814164985423966</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.6221662450845007</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.5679093957776004</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.569496883556653</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.7116649350901993</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5865820179979858</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.7203076704828799</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.5865511972514272</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.5531540871317511</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.6124543913060746</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.5660919762791148</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.6696885213524761</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.6419680879039026</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.61840825057827</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.613525247121129</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.6387740626690871</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.6073206914217472</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.6165606241097539</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.633274380051317</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.6189142276088477</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.6269723108484855</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.6124368640751986</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.6276144236947184</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.6197825201334277</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.6091371129102467</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.6724085155110219</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.6572797100226969</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.6046433880641467</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.6225877414010217</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.5839142854040744</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.7269499937482051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6908748999529558</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6263341376784639</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5066524026466879</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6041199838200303</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6190541951294929</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5823564881389798</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5744181197135887</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5792121361038823</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5765215010610764</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5703334888728694</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.6271370821655645</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5730585779044804</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.615537473513261</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.5914475401920771</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.574192990424676</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.7268703097955646</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.7006962581360117</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.5820274105557762</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.5751800603603996</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.5680165085169486</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.5737657094471257</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.5531541314644147</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.6705555921768149</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.587835796996053</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.6180173651408094</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.6679622822333704</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.6178449231457387</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.6253239678945568</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.6223486637244559</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.6227794677403539</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.7164035965096076</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.5978640949204651</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.6866259822577455</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.6462158692351641</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.6024492784075859</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.6337093240185878</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.6068498980799284</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.6357495566622359</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.6104396662816313</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.6258886822110071</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.604373943752729</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.6770927276339804</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.5838012885855716</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.6300646520625811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7290195148279708</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.767745145275082</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4986681245681215</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6120648316606326</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5737070800497835</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5968901830508326</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5831728378565579</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.599930446399435</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5805371115170169</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7256174847117002</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.5741749328289716</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.7035510001933074</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.5614303321263923</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.6867585825527756</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.5741989205463355</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.5661877530295871</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.5751127240716711</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.5563365044289965</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.7382326850060337</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.5615322639309943</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.6639250639310168</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.5531524259483753</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.7616213648772318</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.5709523651649284</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.6172964472409207</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.6182548961695061</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.6007552095983951</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.6181854715230742</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.6194244791878755</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.6208952888613208</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.6083823042923253</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.6231568159970994</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.6158112357152679</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.6072637145926403</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.5928871208497486</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.6419265119268323</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.5985653073991106</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.6219906357762314</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.6333931017378276</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.6241591076841347</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.6941089363691262</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.6578473958523302</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.5839033764926482</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.7068352885544521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6159687348130368</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6108736244477145</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4993811941502402</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6446574715747113</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5768370170437395</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.6718480798932761</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5842957913412959</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.6710585363110442</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.5802924263433921</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.5756791959798758</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6050973765352426</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5712088677829199</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.5697188078856289</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.6570321013185508</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.6055548260419815</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.5829279386694887</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.5965615222220116</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.573793769229583</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.5823124807133991</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.5842408277481138</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.6141856929472526</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.5531446054093586</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.6567034482898705</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.5731706105599904</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.6479769232300635</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.6259806286502805</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.6204788547311142</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.6281366850422846</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.6609678856524969</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.6712251194975336</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.6437217680121778</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.6098977893597078</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.6073637351130399</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.6130942174615255</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.5980415337156334</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.6235487274152484</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.6036948384535166</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.6217910624320768</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.5917802532527515</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.6372144768267094</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.6310253324224581</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.6006140770826515</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.5838903547904661</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.6388814021323468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/08/Before_Soc_EEH2.xlsx
+++ b/08/Before_Soc_EEH2.xlsx
@@ -17,39 +17,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+  <si>
+    <t>ГО</t>
+  </si>
   <si>
     <t>ГЗ</t>
   </si>
   <si>
-    <t>ГЗ_end</t>
+    <t>1</t>
   </si>
   <si>
-    <t>Extract per1 SetValue_Start</t>
+    <t>2</t>
   </si>
   <si>
-    <t>Extract end</t>
+    <t>3</t>
   </si>
   <si>
-    <t>Show res of Extract</t>
+    <t>4</t>
   </si>
   <si>
-    <t>Contrib per1 SetValue_Start</t>
+    <t>5</t>
   </si>
   <si>
-    <t>Contrib per5 SetValue_Start</t>
+    <t>Самолыго Алексей</t>
   </si>
   <si>
-    <t>Contrib per5 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>ShowGain</t>
-  </si>
-  <si>
-    <t>Contrib end</t>
-  </si>
-  <si>
-    <t>ГО</t>
+    <t>Амбарцумян Дарья</t>
   </si>
   <si>
     <t>Заруба Кирилл</t>
@@ -449,14 +443,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:46">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -465,34 +462,34 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R1" t="s">
         <v>3</v>
@@ -501,33 +498,364 @@
         <v>4</v>
       </c>
       <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" t="s">
+      <c r="C2" t="n">
+        <v>0.130090733116101</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.336603793687033</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9026770088389325</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.212387098251916</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.915526560266261</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1701683113301679</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.057248444800032</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.454150941239682</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.731341013279835</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.892577986711133</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.234180900603472</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5594151848203562</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.4289870941098011</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.6839039677714214</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5539525921601995</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.5184428340422476</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.6946815589489309</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.4284811124950992</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.2929474048574156</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.5415786984606419</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.7873637335616354</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.6125677019890642</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2582333821877033</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.688510122370371</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.978742841624507</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.393410118023375</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.241852528665202</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3.544724725394907</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.8089851811625188</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.67518772893182</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.8255535677844493</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.317033796255594</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>2.048272242902166</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1.766354633989245</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>5.069158188698061</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.035602079180091</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.690963025608147</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2.186087656689934</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.7845567432971747</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.365421615750811</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.4593033821127607</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.402975556098267</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1.978589256183831</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.3151767819222844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1</v>
+      <c r="C3" t="n">
+        <v>0.2804710209589812</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.830243698338974</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.190832877475649</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.462453136597671</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7304150179215749</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.289980173133426</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8029564666398394</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.385208009277218</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.256751014918681</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2286815205692114</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1601096933482885</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.938988502334178</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.4958581019893021</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.1752293478070302</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1607286491752038</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.7701400793308785</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.958953123203141</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.144709765302427</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.534481104140211</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.375185073301787</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3.542432956342645</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.017396332859592</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.967327750899859</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>6.461506390361425</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2256828715783444</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2820701926479338</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2659718915488428</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2.215961875413137</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.903604884790129</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.23797503166981</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.09606203920267452</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.850777587441192</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.3547408917562317</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.457746956521527</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.16036814314099</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.09624491392089662</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.007383406423099</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2.211750618702591</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1921078815738039</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.07979931669145725</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.329835546552522</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>3.197580793678683</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>3.372808155153215</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.05139625585799314</v>
       </c>
     </row>
     <row r="4" spans="1:46">
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>0.9055027024432867</v>
@@ -664,7 +992,7 @@
     </row>
     <row r="5" spans="1:46">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>0.147297042153601</v>
@@ -801,7 +1129,7 @@
     </row>
     <row r="6" spans="1:46">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>0.1054612976729365</v>
@@ -938,7 +1266,7 @@
     </row>
     <row r="7" spans="1:46">
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>0.0714631653795559</v>
@@ -1075,7 +1403,7 @@
     </row>
     <row r="8" spans="1:46">
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>0.06601876881812586</v>
@@ -1212,7 +1540,7 @@
     </row>
     <row r="9" spans="1:46">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>0.07827123998226755</v>
@@ -1349,7 +1677,7 @@
     </row>
     <row r="10" spans="1:46">
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>0.06722675805278239</v>
@@ -1486,7 +1814,7 @@
     </row>
     <row r="11" spans="1:46">
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>0.07720051758528707</v>
@@ -1641,14 +1969,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:46">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1657,34 +1988,34 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R1" t="s">
         <v>3</v>
@@ -1693,33 +2024,364 @@
         <v>4</v>
       </c>
       <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" t="s">
+      <c r="C2" t="n">
+        <v>9.7422557844513</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.871025807803612</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.404138879305013</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.163371619464608</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.497059972842263</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.296928094887356</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.735926350629038</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7.10455258351489</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.108524456778164</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.298474025210385</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.664618201152539</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.605773319159698</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7.252378285848268</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7.458281877221454</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6.362048645442176</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7.460760644366889</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7.505413051245941</v>
+      </c>
+      <c r="T2" t="n">
+        <v>8.262608803572306</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6.758379830314085</v>
+      </c>
+      <c r="V2" t="n">
+        <v>8.056028320095685</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.600063683481616</v>
+      </c>
+      <c r="X2" t="n">
+        <v>7.390804699771429</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.107801404025977</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>7.499873677958821</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>7.179971067362962</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6.385861524373001</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6.795770622980107</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5.987252882952229</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>6.385861524373001</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>7.275919861336307</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>6.992340680263161</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6.517438615383016</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>6.450827346714632</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>7.412462541597383</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>7.37351186143221</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>7.147092147209738</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>5.199198078016384</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.833823114560658</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>7.539445521464213</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>6.240953260404848</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>8.222207255439859</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>9.07144354449159</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>6.46136459342683</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>8.119273222773828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1</v>
+      <c r="C3" t="n">
+        <v>7.481430377197298</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.692882735112765</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.490505283896965</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.831576430580268</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.823256094644438</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.373469148633396</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.295822237219905</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.131058845400978</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.910733693714572</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.386915519319592</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.62935662007962</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.11514556319231</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.505790248003861</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8.215736743527874</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6.569855608330948</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.849209634530988</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.394698665735882</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6.283499773391993</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4.093344007344158</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4.910414554027895</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.197171041091868</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4.24425891551345</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.719582385362364</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5.475525626076238</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6.877473854932724</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>6.480083695187461</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.517653434763951</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5.913787860007856</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5.985709200590714</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>5.953878464851811</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>6.47573343096641</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>4.637454115215163</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>6.9375</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>6.167588784575554</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>8.760615308856716</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>7.600656605149901</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>4.751818816011347</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.614515793234166</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7.987906274335817</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>8.108505652036547</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>4.086927983457299</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>5.937962475874633</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2.929457057153044</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>10.29712985716379</v>
       </c>
     </row>
     <row r="4" spans="1:46">
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>5.250304530277956</v>
@@ -1856,7 +2518,7 @@
     </row>
     <row r="5" spans="1:46">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>10.09885926097065</v>
@@ -1993,7 +2655,7 @@
     </row>
     <row r="6" spans="1:46">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>10.06753709514784</v>
@@ -2130,7 +2792,7 @@
     </row>
     <row r="7" spans="1:46">
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>10.18257941454316</v>
@@ -2267,7 +2929,7 @@
     </row>
     <row r="8" spans="1:46">
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>10.32406283203968</v>
@@ -2404,7 +3066,7 @@
     </row>
     <row r="9" spans="1:46">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>10.19077172411254</v>
@@ -2541,7 +3203,7 @@
     </row>
     <row r="10" spans="1:46">
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>9.999737769128613</v>
@@ -2678,7 +3340,7 @@
     </row>
     <row r="11" spans="1:46">
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>10.26278512669417</v>
@@ -2833,14 +3495,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:46">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2849,34 +3514,34 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R1" t="s">
         <v>3</v>
@@ -2885,69 +3550,400 @@
         <v>4</v>
       </c>
       <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" t="s">
+      <c r="C2" t="n">
+        <v>0.7333697493513197</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7472344049028977</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5212080415490236</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.604592160309756</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5786614848823858</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5881789345622827</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6521155878294225</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5761964467172631</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6078432881948775</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.5799012467651617</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5822558287049857</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.7280269438997499</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.5803413697074544</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.6723842620940543</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.6250203942516988</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.5950075474539798</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.5720449764354137</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.5712326199562749</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.6797992553784205</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.6394317644458023</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.5622237169392726</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.5533757327680278</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.7164693177740099</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.6553661270504746</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.6312889246186262</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.6305563665977379</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.6304691830923176</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.6328927856617099</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.6333699377796141</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.6589853185828481</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.7047265042750561</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.6950503790505526</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.6173920660660021</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.6939370946609069</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.6041361768451271</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.6773666584402417</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6026860498634968</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.626994139083311</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.5893837380179393</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.6304880579521414</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.6686001857331331</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.7446430403760246</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.5840865883133579</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.7476240999884323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1</v>
+      <c r="C3" t="n">
+        <v>0.7435540289190298</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6050951748228641</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.498909338166194</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5994720905437433</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5701010110385452</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7295559978318407</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5849537943666363</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5791239963413656</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6015413814323106</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5729742523943238</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6326517023261777</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6513269143558154</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.6519966105910752</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.5653113221955322</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.5818827143131113</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.6919690399396715</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.5650940103342752</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.5628366461904214</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.6015632933757867</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.5655478143359158</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.5873057480669021</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.5531471907058263</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.6223431198684432</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.5717440612228478</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.678812433240887</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.6820136977081525</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.6385379340999453</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.6409967490922556</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.6303908229421166</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.6299806076724398</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.6090366384689173</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.6195411263993422</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.6236821093168131</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.6244677914891861</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.6068349364827111</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.6385359335097082</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6237539692031251</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.6307062500146308</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.7445627074700946</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.663420193470749</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.6874494613561796</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.6085974736105603</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.5839162187362658</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.6222000629249472</v>
       </c>
     </row>
     <row r="4" spans="1:46">
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7699854072542962</v>
+        <v>0.7699854072542969</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6543087887066078</v>
+        <v>0.6543087887066085</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4989947205492941</v>
+        <v>0.4989947205492939</v>
       </c>
       <c r="F4" t="n">
-        <v>0.633248995178689</v>
+        <v>0.6332489951786888</v>
       </c>
       <c r="G4" t="n">
-        <v>0.570283205069863</v>
+        <v>0.5702832050698631</v>
       </c>
       <c r="H4" t="n">
         <v>0.6577580137254259</v>
       </c>
       <c r="I4" t="n">
-        <v>0.571477809953184</v>
+        <v>0.5714778099531839</v>
       </c>
       <c r="J4" t="n">
         <v>0.577138761118252</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6252271196874757</v>
+        <v>0.6252271196874759</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7043464511089488</v>
+        <v>0.7043464511089492</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6252096637032772</v>
+        <v>0.625209663703277</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5941384241956332</v>
+        <v>0.5941384241956331</v>
       </c>
       <c r="O4" t="n">
         <v>0.5753398575210404</v>
@@ -2962,111 +3958,111 @@
         <v>0.5620233893914047</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6581903061585721</v>
+        <v>0.6581903061585723</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5661354501764623</v>
+        <v>0.5661354501764624</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6436974452764458</v>
+        <v>0.643697445276446</v>
       </c>
       <c r="V4" t="n">
         <v>0.5713124299052931</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5761739641778487</v>
+        <v>0.5761739641778488</v>
       </c>
       <c r="X4" t="n">
         <v>0.5531511016264041</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7203459533645497</v>
+        <v>0.720345953364549</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5764472467007474</v>
+        <v>0.5764472467007472</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6162313442204579</v>
+        <v>0.6162313442204578</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6240569194450083</v>
+        <v>0.6240569194450082</v>
       </c>
       <c r="AC4" t="n">
         <v>0.6687964004798767</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6284280060064367</v>
+        <v>0.628428006006437</v>
       </c>
       <c r="AE4" t="n">
         <v>0.7195324383423162</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.6245415780885658</v>
+        <v>0.6245415780885656</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.7261926705931097</v>
+        <v>0.7261926705931099</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.6925385565474933</v>
+        <v>0.6925385565474935</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5985381045794468</v>
+        <v>0.5985381045794467</v>
       </c>
       <c r="AJ4" t="n">
         <v>0.6507188458649165</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6091519062410766</v>
+        <v>0.6091519062410767</v>
       </c>
       <c r="AL4" t="n">
         <v>0.6190326827702061</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6102770520632318</v>
+        <v>0.610277052063232</v>
       </c>
       <c r="AN4" t="n">
         <v>0.6445172918074626</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.6194870063960091</v>
+        <v>0.619487006396009</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.6311173093369914</v>
+        <v>0.6311173093369916</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.6076941857952409</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.629297637791041</v>
+        <v>0.6292976377910413</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.5839147610524079</v>
+        <v>0.583914761052408</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.7382073494712085</v>
+        <v>0.7382073494712083</v>
       </c>
     </row>
     <row r="5" spans="1:46">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6773052221006826</v>
+        <v>0.6773052221006824</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5885213030238228</v>
+        <v>0.5885213030238233</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5002256185787088</v>
+        <v>0.500225618578709</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5655936638310114</v>
+        <v>0.5655936638310113</v>
       </c>
       <c r="G5" t="n">
         <v>0.6266762130646731</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6091522086217019</v>
+        <v>0.6091522086217018</v>
       </c>
       <c r="I5" t="n">
         <v>0.5807553113880931</v>
@@ -3075,46 +4071,46 @@
         <v>0.6257432931732748</v>
       </c>
       <c r="K5" t="n">
-        <v>0.560879222453133</v>
+        <v>0.5608792224531332</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7003550436002942</v>
+        <v>0.7003550436002943</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5772475066101928</v>
+        <v>0.5772475066101926</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5715748932284792</v>
+        <v>0.5715748932284791</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5803407993353935</v>
+        <v>0.5803407993353937</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5642357982966214</v>
+        <v>0.5642357982966212</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5796476959194679</v>
+        <v>0.5796476959194677</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6048392781346219</v>
+        <v>0.6048392781346221</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6749993938686217</v>
+        <v>0.6749993938686218</v>
       </c>
       <c r="T5" t="n">
         <v>0.5697041697146278</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6347576938640994</v>
+        <v>0.6347576938640995</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6799041252048934</v>
+        <v>0.6799041252048932</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5768318767102372</v>
+        <v>0.5768318767102374</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5531358297868575</v>
+        <v>0.5531358297868577</v>
       </c>
       <c r="Y5" t="n">
         <v>0.621496174368271</v>
@@ -3123,55 +4119,55 @@
         <v>0.6905475381155074</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.6943051536596176</v>
+        <v>0.6943051536596178</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6309624287152845</v>
+        <v>0.6309624287152846</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.6633505024891383</v>
+        <v>0.6633505024891382</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.5916087495345974</v>
+        <v>0.5916087495345975</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.618680968971138</v>
+        <v>0.6186809689711383</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.6230615355266799</v>
+        <v>0.62306153552668</v>
       </c>
       <c r="AG5" t="n">
         <v>0.6833792833441434</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.6093628627993279</v>
+        <v>0.6093628627993281</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.6258861817948832</v>
+        <v>0.6258861817948834</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.6269071896364132</v>
+        <v>0.626907189636413</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.5982523373249385</v>
+        <v>0.5982523373249383</v>
       </c>
       <c r="AL5" t="n">
         <v>0.6297869800784095</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.5888865595750643</v>
+        <v>0.5888865595750645</v>
       </c>
       <c r="AN5" t="n">
         <v>0.623480950080923</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.5992659737477077</v>
+        <v>0.599265973747708</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.6613533530051297</v>
+        <v>0.6613533530051301</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.5955270292191449</v>
+        <v>0.5955270292191452</v>
       </c>
       <c r="AR5" t="n">
         <v>0.6289224347500992</v>
@@ -3180,30 +4176,30 @@
         <v>0.5838800822397364</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.6608999114995117</v>
+        <v>0.6608999114995118</v>
       </c>
     </row>
     <row r="6" spans="1:46">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>0.6050090134895699</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5569314501763788</v>
+        <v>0.5569314501763789</v>
       </c>
       <c r="E6" t="n">
         <v>0.4994122939321182</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5811679424855773</v>
+        <v>0.5811679424855776</v>
       </c>
       <c r="G6" t="n">
         <v>0.5820442541782113</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6195916727375357</v>
+        <v>0.6195916727375359</v>
       </c>
       <c r="I6" t="n">
         <v>0.6025006934305555</v>
@@ -3212,28 +4208,28 @@
         <v>0.6372810083053209</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5666228430712908</v>
+        <v>0.5666228430712905</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5633367758746685</v>
+        <v>0.5633367758746687</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5551886177432441</v>
+        <v>0.555188617743244</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5852809778351503</v>
+        <v>0.5852809778351502</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6031664470974242</v>
+        <v>0.6031664470974243</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5851236857078606</v>
+        <v>0.5851236857078609</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6094086791655318</v>
+        <v>0.6094086791655317</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5806392530090521</v>
+        <v>0.5806392530090519</v>
       </c>
       <c r="S6" t="n">
         <v>0.5967294801919706</v>
@@ -3242,28 +4238,28 @@
         <v>0.5720895353543095</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5694823285962908</v>
+        <v>0.5694823285962912</v>
       </c>
       <c r="V6" t="n">
         <v>0.5748378276252021</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5768777986212027</v>
+        <v>0.5768777986212025</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5531535525343172</v>
+        <v>0.5531535525343168</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5740214190466706</v>
+        <v>0.574021419046671</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5748021523642406</v>
+        <v>0.5748021523642405</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6178117503975</v>
+        <v>0.6178117503975001</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6642644172273372</v>
+        <v>0.6642644172273375</v>
       </c>
       <c r="AC6" t="n">
         <v>0.5897293583850954</v>
@@ -3272,34 +4268,34 @@
         <v>0.6585801426603652</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.5719259507826838</v>
+        <v>0.5719259507826837</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7075027594468685</v>
+        <v>0.7075027594468684</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.5983933947878483</v>
+        <v>0.5983933947878484</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.6098237700635769</v>
+        <v>0.609823770063577</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6286225947133146</v>
+        <v>0.6286225947133142</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.6027225235988886</v>
+        <v>0.6027225235988882</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.5910354099627346</v>
+        <v>0.591035409962735</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.5989897999488072</v>
+        <v>0.5989897999488069</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.6083125741096951</v>
+        <v>0.608312574109695</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.6204041704865526</v>
+        <v>0.6204041704865528</v>
       </c>
       <c r="AO6" t="n">
         <v>0.6149728021143169</v>
@@ -3308,39 +4304,39 @@
         <v>0.619816452792733</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.6076809722530195</v>
+        <v>0.6076809722530194</v>
       </c>
       <c r="AR6" t="n">
         <v>0.6337208227709679</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.5839114418277717</v>
+        <v>0.583911441827771</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6006409786094502</v>
+        <v>0.6006409786094504</v>
       </c>
     </row>
     <row r="7" spans="1:46">
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6178112987866432</v>
+        <v>0.6178112987866428</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6261934699553194</v>
+        <v>0.6261934699553199</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6925652567962493</v>
+        <v>0.6925652567962495</v>
       </c>
       <c r="F7" t="n">
-        <v>0.562702941863567</v>
+        <v>0.5627029418635668</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7052901848096518</v>
+        <v>0.7052901848096517</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6369677955407762</v>
+        <v>0.6369677955407763</v>
       </c>
       <c r="I7" t="n">
         <v>0.5705635189095571</v>
@@ -3355,67 +4351,67 @@
         <v>0.576679143577759</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5775354271725833</v>
+        <v>0.5775354271725834</v>
       </c>
       <c r="N7" t="n">
         <v>0.576092900915808</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6968181558729335</v>
+        <v>0.6968181558729332</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5670056113038302</v>
+        <v>0.5670056113038301</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6667599356293795</v>
+        <v>0.6667599356293794</v>
       </c>
       <c r="R7" t="n">
-        <v>0.581063593076336</v>
+        <v>0.5810635930763356</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5930920760289663</v>
+        <v>0.5930920760289664</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6433970963622561</v>
+        <v>0.6433970963622557</v>
       </c>
       <c r="U7" t="n">
-        <v>0.6349904940991224</v>
+        <v>0.6349904940991226</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5631823734288141</v>
+        <v>0.5631823734288143</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6181999245389359</v>
+        <v>0.6181999245389358</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5556093637818852</v>
+        <v>0.5556093637818856</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6129406857222117</v>
+        <v>0.6129406857222118</v>
       </c>
       <c r="Z7" t="n">
         <v>0.5668955614544878</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.6478614987933096</v>
+        <v>0.6478614987933097</v>
       </c>
       <c r="AB7" t="n">
         <v>0.6240309051464311</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.5967259402343476</v>
+        <v>0.5967259402343477</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6061746677341829</v>
+        <v>0.6061746677341827</v>
       </c>
       <c r="AE7" t="n">
         <v>0.6646414725857854</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.6491799673575794</v>
+        <v>0.6491799673575793</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6961428188592248</v>
+        <v>0.6961428188592247</v>
       </c>
       <c r="AH7" t="n">
         <v>0.6390206596438676</v>
@@ -3424,7 +4420,7 @@
         <v>0.6796215164322793</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.6358985351731615</v>
+        <v>0.6358985351731613</v>
       </c>
       <c r="AK7" t="n">
         <v>0.6129536529418981</v>
@@ -3439,72 +4435,72 @@
         <v>0.6843223636450746</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.6168635103896092</v>
+        <v>0.6168635103896094</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.5963617996663296</v>
+        <v>0.5963617996663299</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.6059797975703134</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.6428650840762942</v>
+        <v>0.6428650840762939</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.5925584728406105</v>
+        <v>0.5925584728406106</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.6474042417061268</v>
+        <v>0.6474042417061266</v>
       </c>
     </row>
     <row r="8" spans="1:46">
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6530473532485855</v>
+        <v>0.6530473532485856</v>
       </c>
       <c r="D8" t="n">
         <v>0.6946555838705153</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4980249780476983</v>
+        <v>0.4980249780476982</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5679520846119852</v>
+        <v>0.5679520846119853</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6684900299404632</v>
+        <v>0.6684900299404631</v>
       </c>
       <c r="H8" t="n">
         <v>0.5771602125231344</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5654027731068137</v>
+        <v>0.5654027731068142</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6798081776642952</v>
+        <v>0.679808177664295</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5659072917221921</v>
+        <v>0.5659072917221919</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6707559188411401</v>
+        <v>0.6707559188411396</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6466258102911021</v>
+        <v>0.6466258102911022</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5650331633361545</v>
+        <v>0.5650331633361546</v>
       </c>
       <c r="O8" t="n">
         <v>0.5695249650634732</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5814164985423966</v>
+        <v>0.5814164985423967</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6221662450845007</v>
+        <v>0.6221662450845004</v>
       </c>
       <c r="R8" t="n">
         <v>0.5679093957776004</v>
@@ -3513,52 +4509,52 @@
         <v>0.569496883556653</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7116649350901993</v>
+        <v>0.7116649350901989</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5865820179979858</v>
+        <v>0.5865820179979859</v>
       </c>
       <c r="V8" t="n">
         <v>0.7203076704828799</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5865511972514272</v>
+        <v>0.5865511972514276</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5531540871317511</v>
+        <v>0.5531540871317515</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6124543913060746</v>
+        <v>0.6124543913060737</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5660919762791148</v>
+        <v>0.5660919762791147</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.6696885213524761</v>
+        <v>0.6696885213524763</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.6419680879039026</v>
+        <v>0.6419680879039027</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.61840825057827</v>
+        <v>0.6184082505782698</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.613525247121129</v>
+        <v>0.6135252471211288</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.6387740626690871</v>
+        <v>0.6387740626690872</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.6073206914217472</v>
+        <v>0.607320691421747</v>
       </c>
       <c r="AG8" t="n">
         <v>0.6165606241097539</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.633274380051317</v>
+        <v>0.6332743800513168</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6189142276088477</v>
+        <v>0.6189142276088473</v>
       </c>
       <c r="AJ8" t="n">
         <v>0.6269723108484855</v>
@@ -3567,7 +4563,7 @@
         <v>0.6124368640751986</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.6276144236947184</v>
+        <v>0.6276144236947186</v>
       </c>
       <c r="AM8" t="n">
         <v>0.6197825201334277</v>
@@ -3576,144 +4572,144 @@
         <v>0.6091371129102467</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.6724085155110219</v>
+        <v>0.672408515511022</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.6572797100226969</v>
+        <v>0.6572797100226968</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.6046433880641467</v>
+        <v>0.6046433880641471</v>
       </c>
       <c r="AR8" t="n">
         <v>0.6225877414010217</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.5839142854040744</v>
+        <v>0.5839142854040742</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.7269499937482051</v>
+        <v>0.7269499937482055</v>
       </c>
     </row>
     <row r="9" spans="1:46">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6908748999529558</v>
+        <v>0.6908748999529556</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6263341376784639</v>
+        <v>0.6263341376784642</v>
       </c>
       <c r="E9" t="n">
         <v>0.5066524026466879</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6041199838200303</v>
+        <v>0.6041199838200304</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6190541951294929</v>
+        <v>0.6190541951294931</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5823564881389798</v>
+        <v>0.5823564881389799</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5744181197135887</v>
+        <v>0.5744181197135886</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5792121361038823</v>
+        <v>0.5792121361038824</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5765215010610764</v>
+        <v>0.5765215010610762</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5703334888728694</v>
+        <v>0.5703334888728693</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6271370821655645</v>
+        <v>0.6271370821655646</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5730585779044804</v>
+        <v>0.5730585779044806</v>
       </c>
       <c r="O9" t="n">
-        <v>0.615537473513261</v>
+        <v>0.6155374735132612</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5914475401920771</v>
+        <v>0.5914475401920772</v>
       </c>
       <c r="Q9" t="n">
         <v>0.574192990424676</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7268703097955646</v>
+        <v>0.7268703097955657</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7006962581360117</v>
+        <v>0.7006962581360114</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5820274105557762</v>
+        <v>0.5820274105557761</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5751800603603996</v>
+        <v>0.5751800603603997</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5680165085169486</v>
+        <v>0.5680165085169488</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5737657094471257</v>
+        <v>0.5737657094471256</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5531541314644147</v>
+        <v>0.5531541314644151</v>
       </c>
       <c r="Y9" t="n">
         <v>0.6705555921768149</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.587835796996053</v>
+        <v>0.5878357969960532</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.6180173651408094</v>
+        <v>0.618017365140809</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6679622822333704</v>
+        <v>0.6679622822333705</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6178449231457387</v>
+        <v>0.6178449231457391</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6253239678945568</v>
+        <v>0.6253239678945566</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.6223486637244559</v>
+        <v>0.6223486637244561</v>
       </c>
       <c r="AF9" t="n">
         <v>0.6227794677403539</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.7164035965096076</v>
+        <v>0.7164035965096074</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.5978640949204651</v>
+        <v>0.5978640949204654</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.6866259822577455</v>
+        <v>0.6866259822577453</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.6462158692351641</v>
+        <v>0.6462158692351644</v>
       </c>
       <c r="AK9" t="n">
         <v>0.6024492784075859</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.6337093240185878</v>
+        <v>0.6337093240185879</v>
       </c>
       <c r="AM9" t="n">
         <v>0.6068498980799284</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.6357495566622359</v>
+        <v>0.6357495566622358</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.6104396662816313</v>
+        <v>0.6104396662816308</v>
       </c>
       <c r="AP9" t="n">
         <v>0.6258886822110071</v>
@@ -3722,48 +4718,48 @@
         <v>0.604373943752729</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.6770927276339804</v>
+        <v>0.6770927276339808</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.5838012885855716</v>
+        <v>0.5838012885855717</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.6300646520625811</v>
+        <v>0.6300646520625814</v>
       </c>
     </row>
     <row r="10" spans="1:46">
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>0.7290195148279708</v>
       </c>
       <c r="D10" t="n">
-        <v>0.767745145275082</v>
+        <v>0.7677451452750825</v>
       </c>
       <c r="E10" t="n">
         <v>0.4986681245681215</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6120648316606326</v>
+        <v>0.6120648316606327</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5737070800497835</v>
+        <v>0.5737070800497834</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5968901830508326</v>
+        <v>0.5968901830508324</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5831728378565579</v>
+        <v>0.5831728378565578</v>
       </c>
       <c r="J10" t="n">
         <v>0.599930446399435</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5805371115170169</v>
+        <v>0.580537111517017</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7256174847117002</v>
+        <v>0.7256174847117003</v>
       </c>
       <c r="M10" t="n">
         <v>0.5741749328289716</v>
@@ -3772,52 +4768,52 @@
         <v>0.7035510001933074</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5614303321263923</v>
+        <v>0.5614303321263925</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6867585825527756</v>
+        <v>0.6867585825527758</v>
       </c>
       <c r="Q10" t="n">
         <v>0.5741989205463355</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5661877530295871</v>
+        <v>0.5661877530295873</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5751127240716711</v>
+        <v>0.575112724071671</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5563365044289965</v>
+        <v>0.5563365044289968</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7382326850060337</v>
+        <v>0.7382326850060336</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5615322639309943</v>
+        <v>0.5615322639309944</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6639250639310168</v>
+        <v>0.6639250639310169</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5531524259483753</v>
+        <v>0.5531524259483752</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7616213648772318</v>
+        <v>0.7616213648772313</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5709523651649284</v>
+        <v>0.5709523651649285</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6172964472409207</v>
+        <v>0.6172964472409206</v>
       </c>
       <c r="AB10" t="n">
         <v>0.6182548961695061</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6007552095983951</v>
+        <v>0.600755209598395</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.6181854715230742</v>
+        <v>0.6181854715230739</v>
       </c>
       <c r="AE10" t="n">
         <v>0.6194244791878755</v>
@@ -3829,16 +4825,16 @@
         <v>0.6083823042923253</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.6231568159970994</v>
+        <v>0.6231568159970992</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.6158112357152679</v>
+        <v>0.6158112357152681</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.6072637145926403</v>
+        <v>0.6072637145926402</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.5928871208497486</v>
+        <v>0.5928871208497482</v>
       </c>
       <c r="AL10" t="n">
         <v>0.6419265119268323</v>
@@ -3850,114 +4846,114 @@
         <v>0.6219906357762314</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.6333931017378276</v>
+        <v>0.6333931017378275</v>
       </c>
       <c r="AP10" t="n">
         <v>0.6241591076841347</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.6941089363691262</v>
+        <v>0.6941089363691266</v>
       </c>
       <c r="AR10" t="n">
         <v>0.6578473958523302</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.5839033764926482</v>
+        <v>0.5839033764926476</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.7068352885544521</v>
+        <v>0.7068352885544519</v>
       </c>
     </row>
     <row r="11" spans="1:46">
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6159687348130368</v>
+        <v>0.6159687348130369</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6108736244477145</v>
+        <v>0.6108736244477149</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4993811941502402</v>
+        <v>0.4993811941502404</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6446574715747113</v>
+        <v>0.6446574715747111</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5768370170437395</v>
+        <v>0.5768370170437396</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6718480798932761</v>
+        <v>0.6718480798932759</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5842957913412959</v>
+        <v>0.5842957913412962</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6710585363110442</v>
+        <v>0.6710585363110443</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5802924263433921</v>
+        <v>0.580292426343392</v>
       </c>
       <c r="L11" t="n">
         <v>0.5756791959798758</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6050973765352426</v>
+        <v>0.6050973765352424</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5712088677829199</v>
+        <v>0.5712088677829198</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5697188078856289</v>
+        <v>0.5697188078856288</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6570321013185508</v>
+        <v>0.6570321013185506</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6055548260419815</v>
+        <v>0.6055548260419813</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5829279386694887</v>
+        <v>0.5829279386694886</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5965615222220116</v>
+        <v>0.5965615222220115</v>
       </c>
       <c r="T11" t="n">
-        <v>0.573793769229583</v>
+        <v>0.5737937692295831</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5823124807133991</v>
+        <v>0.5823124807133992</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5842408277481138</v>
+        <v>0.5842408277481141</v>
       </c>
       <c r="W11" t="n">
         <v>0.6141856929472526</v>
       </c>
       <c r="X11" t="n">
-        <v>0.5531446054093586</v>
+        <v>0.5531446054093592</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6567034482898705</v>
+        <v>0.656703448289871</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.5731706105599904</v>
+        <v>0.5731706105599903</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6479769232300635</v>
+        <v>0.6479769232300634</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.6259806286502805</v>
+        <v>0.6259806286502806</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6204788547311142</v>
+        <v>0.6204788547311141</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.6281366850422846</v>
+        <v>0.6281366850422848</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.6609678856524969</v>
+        <v>0.6609678856524968</v>
       </c>
       <c r="AF11" t="n">
         <v>0.6712251194975336</v>
@@ -3966,10 +4962,10 @@
         <v>0.6437217680121778</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.6098977893597078</v>
+        <v>0.6098977893597081</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.6073637351130399</v>
+        <v>0.6073637351130398</v>
       </c>
       <c r="AJ11" t="n">
         <v>0.6130942174615255</v>
@@ -3978,31 +4974,31 @@
         <v>0.5980415337156334</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.6235487274152484</v>
+        <v>0.6235487274152485</v>
       </c>
       <c r="AM11" t="n">
         <v>0.6036948384535166</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.6217910624320768</v>
+        <v>0.6217910624320767</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.5917802532527515</v>
+        <v>0.591780253252752</v>
       </c>
       <c r="AP11" t="n">
         <v>0.6372144768267094</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.6310253324224581</v>
+        <v>0.6310253324224582</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.6006140770826515</v>
+        <v>0.6006140770826517</v>
       </c>
       <c r="AS11" t="n">
         <v>0.5838903547904661</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.6388814021323468</v>
+        <v>0.6388814021323466</v>
       </c>
     </row>
   </sheetData>

--- a/08/Before_Soc_EEH2.xlsx
+++ b/08/Before_Soc_EEH2.xlsx
@@ -584,136 +584,136 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.130090733116101</v>
+        <v>0.1300907331157302</v>
       </c>
       <c r="D2" t="n">
-        <v>0.336603793687033</v>
+        <v>0.3366037936871111</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9026770088389325</v>
+        <v>0.9026770088393495</v>
       </c>
       <c r="F2" t="n">
-        <v>2.212387098251916</v>
+        <v>2.212387098251004</v>
       </c>
       <c r="G2" t="n">
-        <v>2.915526560266261</v>
+        <v>2.915526560266331</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1701683113301679</v>
+        <v>0.1701683113293343</v>
       </c>
       <c r="I2" t="n">
-        <v>1.057248444800032</v>
+        <v>1.057248444799024</v>
       </c>
       <c r="J2" t="n">
-        <v>1.454150941239682</v>
+        <v>1.45415094124069</v>
       </c>
       <c r="K2" t="n">
-        <v>2.731341013279835</v>
+        <v>2.731341013279806</v>
       </c>
       <c r="L2" t="n">
-        <v>3.892577986711133</v>
+        <v>3.892577986711474</v>
       </c>
       <c r="M2" t="n">
-        <v>5.234180900603472</v>
+        <v>5.234180900602833</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5594151848203562</v>
+        <v>0.5594151848180626</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4289870941098011</v>
+        <v>0.4289870941094431</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6839039677714214</v>
+        <v>0.6839039677711393</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5539525921601995</v>
+        <v>0.5539525921592927</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5184428340422476</v>
+        <v>0.5184428340408967</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6946815589489309</v>
+        <v>0.6946815589488875</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4284811124950992</v>
+        <v>0.4284811124950952</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2929474048574156</v>
+        <v>0.2929474048575615</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5415786984606419</v>
+        <v>0.5415786984608397</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7873637335616354</v>
+        <v>0.7873637335621583</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6125677019890642</v>
+        <v>0.612567701988749</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2582333821877033</v>
+        <v>0.258233382187635</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.688510122370371</v>
+        <v>0.688510122370241</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.978742841624507</v>
+        <v>0.9787428416239611</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.393410118023375</v>
+        <v>1.393410118023474</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.241852528665202</v>
+        <v>1.241852528665189</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.544724725394907</v>
+        <v>3.544724725394945</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.8089851811625188</v>
+        <v>0.8089851811640606</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.67518772893182</v>
+        <v>0.6751877289321496</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.8255535677844493</v>
+        <v>0.8255535677845534</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.317033796255594</v>
+        <v>1.317033796255492</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.048272242902166</v>
+        <v>2.04827224290247</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.766354633989245</v>
+        <v>1.766354633989516</v>
       </c>
       <c r="AK2" t="n">
-        <v>5.069158188698061</v>
+        <v>5.069158188698421</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.035602079180091</v>
+        <v>1.035602079179984</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.690963025608147</v>
+        <v>1.690963025608289</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.186087656689934</v>
+        <v>2.186087656690399</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.7845567432971747</v>
+        <v>0.7845567432971935</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.365421615750811</v>
+        <v>1.3654216157508</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.4593033821127607</v>
+        <v>0.4593033821131483</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.402975556098267</v>
+        <v>0.4029755560983226</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.978589256183831</v>
+        <v>1.97858925618384</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.3151767819222844</v>
+        <v>0.3151767819219718</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -721,136 +721,136 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2804710209589812</v>
+        <v>0.2804710209589932</v>
       </c>
       <c r="D3" t="n">
-        <v>2.830243698338974</v>
+        <v>2.830243698338883</v>
       </c>
       <c r="E3" t="n">
-        <v>4.190832877475649</v>
+        <v>4.190832877475233</v>
       </c>
       <c r="F3" t="n">
-        <v>2.462453136597671</v>
+        <v>2.462453136597385</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7304150179215749</v>
+        <v>0.7304150179213309</v>
       </c>
       <c r="H3" t="n">
-        <v>1.289980173133426</v>
+        <v>1.289980173133081</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8029564666398394</v>
+        <v>0.8029564666388005</v>
       </c>
       <c r="J3" t="n">
-        <v>1.385208009277218</v>
+        <v>1.385208009276914</v>
       </c>
       <c r="K3" t="n">
-        <v>1.256751014918681</v>
+        <v>1.256751014918237</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2286815205692114</v>
+        <v>0.2286815205635508</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1601096933482885</v>
+        <v>0.1601096933481717</v>
       </c>
       <c r="N3" t="n">
-        <v>0.938988502334178</v>
+        <v>0.9389885023343066</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4958581019893021</v>
+        <v>0.4958581019890693</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1752293478070302</v>
+        <v>0.1752293478071058</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1607286491752038</v>
+        <v>0.1607286491757565</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7701400793308785</v>
+        <v>0.7701400793303852</v>
       </c>
       <c r="S3" t="n">
-        <v>1.958953123203141</v>
+        <v>1.958953123203483</v>
       </c>
       <c r="T3" t="n">
-        <v>2.144709765302427</v>
+        <v>2.144709765302607</v>
       </c>
       <c r="U3" t="n">
-        <v>1.534481104140211</v>
+        <v>1.534481104139869</v>
       </c>
       <c r="V3" t="n">
-        <v>1.375185073301787</v>
+        <v>1.375185073302332</v>
       </c>
       <c r="W3" t="n">
-        <v>3.542432956342645</v>
+        <v>3.542432956342638</v>
       </c>
       <c r="X3" t="n">
-        <v>2.017396332859592</v>
+        <v>2.017396332859597</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.967327750899859</v>
+        <v>2.967327750899851</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.461506390361425</v>
+        <v>6.461506390361399</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2256828715783444</v>
+        <v>0.225682871579008</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.2820701926479338</v>
+        <v>0.2820701926477799</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2659718915488428</v>
+        <v>0.2659718915473238</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.215961875413137</v>
+        <v>2.215961875411838</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.903604884790129</v>
+        <v>1.903604884789719</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.23797503166981</v>
+        <v>1.237975031669564</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.09606203920267452</v>
+        <v>0.09606203920265517</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.850777587441192</v>
+        <v>1.850777587441741</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.3547408917562317</v>
+        <v>0.3547408917561884</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.457746956521527</v>
+        <v>1.457746956521394</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.16036814314099</v>
+        <v>0.160368143141003</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.09624491392089662</v>
+        <v>0.09624491392098519</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.007383406423099</v>
+        <v>1.007383406423343</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.211750618702591</v>
+        <v>2.211750618702329</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.1921078815738039</v>
+        <v>0.1921078815744826</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.07979931669145725</v>
+        <v>0.0797993166916504</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.329835546552522</v>
+        <v>1.329835546552764</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.197580793678683</v>
+        <v>3.197580793678976</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.372808155153215</v>
+        <v>3.372808155153276</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.05139625585799314</v>
+        <v>0.05139625585800056</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -858,136 +858,136 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9055027024432867</v>
+        <v>0.9055027024431369</v>
       </c>
       <c r="D4" t="n">
-        <v>6.972482615992111</v>
+        <v>6.972482615992215</v>
       </c>
       <c r="E4" t="n">
-        <v>8.942762355076313</v>
+        <v>8.942762355076461</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7650126303037023</v>
+        <v>0.7650126303040558</v>
       </c>
       <c r="G4" t="n">
-        <v>1.030256187520064</v>
+        <v>1.030256187520162</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3217483721813123</v>
+        <v>0.32174837218126</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3959961936078277</v>
+        <v>0.3959961936079101</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3815444652072533</v>
+        <v>0.3815444652049328</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4822402470376164</v>
+        <v>0.4822402470381781</v>
       </c>
       <c r="L4" t="n">
-        <v>0.457108046019213</v>
+        <v>0.4571080460192845</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7980625006210362</v>
+        <v>0.7980625006182313</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9661666616400547</v>
+        <v>0.9661666616362145</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3720434704870104</v>
+        <v>0.3720434704873499</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06354231884349688</v>
+        <v>0.0635423188429597</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2148481098378356</v>
+        <v>0.2148481098378982</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1603083958219765</v>
+        <v>0.1603083958232157</v>
       </c>
       <c r="S4" t="n">
-        <v>3.647780186907872</v>
+        <v>3.647780186909142</v>
       </c>
       <c r="T4" t="n">
-        <v>3.325272264005225</v>
+        <v>3.325272264005429</v>
       </c>
       <c r="U4" t="n">
-        <v>2.530297363748562</v>
+        <v>2.530297363748787</v>
       </c>
       <c r="V4" t="n">
-        <v>3.093045087970708</v>
+        <v>3.093045087970759</v>
       </c>
       <c r="W4" t="n">
-        <v>10.82497783910336</v>
+        <v>10.82497783910475</v>
       </c>
       <c r="X4" t="n">
-        <v>5.196808259786453</v>
+        <v>5.196808259786656</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.356780338598381</v>
+        <v>7.356780338598647</v>
       </c>
       <c r="Z4" t="n">
-        <v>31.50528623203725</v>
+        <v>31.50528623203688</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3299689051909183</v>
+        <v>0.3299689051900078</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.2670211620682945</v>
+        <v>0.2670211620683215</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.2177624746654298</v>
+        <v>0.2177624746660052</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.5416805570437445</v>
+        <v>0.541680557043006</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.3503747315138918</v>
+        <v>0.350374731513629</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.712406974824929</v>
+        <v>0.7124069748248075</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.2112500254751263</v>
+        <v>0.2112500254754498</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.4789569397007169</v>
+        <v>0.4789569397008093</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.939278323035678</v>
+        <v>1.939278323036256</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.074797577713172</v>
+        <v>1.074797577713772</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.139562861630745</v>
+        <v>2.13956286163085</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.418813827248772</v>
+        <v>0.4188138272487412</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.3105109036403031</v>
+        <v>0.3105109036409155</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.3946569506791032</v>
+        <v>0.3946569506792838</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.869754381247365</v>
+        <v>1.869754381247348</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.2380790630084871</v>
+        <v>0.2380790630085202</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.2377014651151724</v>
+        <v>0.2377014651151755</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.07041559014947849</v>
+        <v>0.07041559014894651</v>
       </c>
       <c r="AS4" t="n">
-        <v>9.229916077496281</v>
+        <v>9.229916077496263</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.07897630422191008</v>
+        <v>0.07897630422196122</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -995,136 +995,136 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.147297042153601</v>
+        <v>0.1472970421536807</v>
       </c>
       <c r="D5" t="n">
-        <v>1.638099591299037</v>
+        <v>1.638099591299045</v>
       </c>
       <c r="E5" t="n">
-        <v>1.92388130018327</v>
+        <v>1.923881300183744</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5909624265780045</v>
+        <v>0.5909624265780281</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6967317890261506</v>
+        <v>0.6967317890262827</v>
       </c>
       <c r="H5" t="n">
-        <v>12.3663351068835</v>
+        <v>12.36633510688373</v>
       </c>
       <c r="I5" t="n">
-        <v>29.44804212091795</v>
+        <v>29.44804212091834</v>
       </c>
       <c r="J5" t="n">
-        <v>7.485691496663445</v>
+        <v>7.485691496663579</v>
       </c>
       <c r="K5" t="n">
-        <v>6.016281584680868</v>
+        <v>6.016281584680819</v>
       </c>
       <c r="L5" t="n">
-        <v>1.500365454147587</v>
+        <v>1.500365454147678</v>
       </c>
       <c r="M5" t="n">
-        <v>1.453449037459073</v>
+        <v>1.453449037458988</v>
       </c>
       <c r="N5" t="n">
-        <v>1.042796005736353</v>
+        <v>1.042796005736436</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9936398647473519</v>
+        <v>0.9936398647473</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3526268639179335</v>
+        <v>0.3526268639182532</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7616168602266509</v>
+        <v>0.7616168602268645</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5189684172497959</v>
+        <v>0.5189684172497245</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2151765771179073</v>
+        <v>0.2151765771178926</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4144194847462898</v>
+        <v>0.4144194847457681</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4073778321444425</v>
+        <v>0.4073778321445677</v>
       </c>
       <c r="V5" t="n">
-        <v>0.591434622879957</v>
+        <v>0.5914346228801391</v>
       </c>
       <c r="W5" t="n">
-        <v>2.626375256423868</v>
+        <v>2.626375256423931</v>
       </c>
       <c r="X5" t="n">
-        <v>1.999269848575764</v>
+        <v>1.999269848575589</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.206341239125043</v>
+        <v>0.2063412391248688</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.4124333416494561</v>
+        <v>0.4124333416496105</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.140375040407599</v>
+        <v>0.1403750404082157</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2717147131906763</v>
+        <v>0.2717147131904088</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1133438687598351</v>
+        <v>0.1133438687613634</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.510610359569295</v>
+        <v>0.51061035956931</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1321679445542659</v>
+        <v>0.1321679445534438</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.2613489586679316</v>
+        <v>0.2613489586679225</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.198717241796412</v>
+        <v>0.1987172417965148</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.3012881533943501</v>
+        <v>0.3012881533944879</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.6801062427189649</v>
+        <v>0.6801062427182341</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.318477392881124</v>
+        <v>1.318477392881077</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.2794106905825912</v>
+        <v>0.2794106905824297</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.3723917965099582</v>
+        <v>0.3723917965098495</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.3382736685257611</v>
+        <v>0.3382736685259268</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.1201848452624629</v>
+        <v>0.1201848452632733</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.2190360186108448</v>
+        <v>0.2190360186105972</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.215417695108111</v>
+        <v>0.2154176951088308</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.163328382626642</v>
+        <v>0.1633283826268544</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.1104605790726431</v>
+        <v>0.1104605790702213</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.6558636437717625</v>
+        <v>0.6558636437717043</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1029727339991533</v>
+        <v>0.1029727339991862</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1132,136 +1132,136 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1054612976729365</v>
+        <v>0.1054612976729014</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6025522970188997</v>
+        <v>0.6025522970189398</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6590755071784984</v>
+        <v>0.6590755071794775</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1375664569695008</v>
+        <v>0.1375664569692428</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1341116823380976</v>
+        <v>0.1341116823381099</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1232779897056865</v>
+        <v>0.1232779897052498</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1296478691478507</v>
+        <v>0.1296478691478503</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1125500035959235</v>
+        <v>0.1125500035958697</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3523420830844748</v>
+        <v>0.3523420830840658</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4088875498964102</v>
+        <v>0.4088875498963964</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1516603874775672</v>
+        <v>0.1516603874774963</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1757447215659223</v>
+        <v>0.1757447215657808</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1504257843601442</v>
+        <v>0.1504257843600786</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1372052244337151</v>
+        <v>0.1372052244336585</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2693457188404287</v>
+        <v>0.2693457188403523</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2236599988387943</v>
+        <v>0.2236599988388279</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1513153129258688</v>
+        <v>0.151315312925203</v>
       </c>
       <c r="T6" t="n">
-        <v>0.157476571327693</v>
+        <v>0.1574765713279975</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1935748119925411</v>
+        <v>0.1935748119927102</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1340546393233875</v>
+        <v>0.1340546393233674</v>
       </c>
       <c r="W6" t="n">
-        <v>2.474281522464643</v>
+        <v>2.474281522464427</v>
       </c>
       <c r="X6" t="n">
-        <v>2.126939681595113</v>
+        <v>2.126939681594825</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.198186822892899</v>
+        <v>1.198186822892806</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.5123696971662</v>
+        <v>2.512369697165725</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.119322078537816</v>
+        <v>0.1193220785376587</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.1441878213732607</v>
+        <v>0.1441878213732496</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1399813997309491</v>
+        <v>0.1399813997307589</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1406462307675606</v>
+        <v>0.1406462307681821</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1290030659873034</v>
+        <v>0.1290030659873521</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1663681360946385</v>
+        <v>0.1663681360948731</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.137533405927206</v>
+        <v>0.1375334059266885</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1284304810296846</v>
+        <v>0.1284304810299241</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.1256774854575824</v>
+        <v>0.1256774854575739</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.1375230040232003</v>
+        <v>0.1375230040226348</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.137330435115702</v>
+        <v>0.1373304351157425</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.1270218832108152</v>
+        <v>0.1270218832106777</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.4289182674716325</v>
+        <v>0.4289182674721737</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.9660195314393965</v>
+        <v>0.9660195314397058</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.1406357739669067</v>
+        <v>0.1406357739671395</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.1174008590604762</v>
+        <v>0.1174008590604775</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.1324800985254258</v>
+        <v>0.1324800985257455</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.1607835141785445</v>
+        <v>0.1607835141789243</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.005482218301007</v>
+        <v>2.005482218300841</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.1024113432867234</v>
+        <v>0.1024113432868565</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1269,136 +1269,136 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0714631653795559</v>
+        <v>0.07146316538015957</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3773385171447586</v>
+        <v>0.3773385171450897</v>
       </c>
       <c r="E7" t="n">
-        <v>1.115719168140352</v>
+        <v>1.115719168140542</v>
       </c>
       <c r="F7" t="n">
-        <v>0.428135486867722</v>
+        <v>0.4281354868675645</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2948670714085822</v>
+        <v>0.2948670714087159</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2867705679883721</v>
+        <v>0.2867705679878421</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3325632747399626</v>
+        <v>0.3325632747398122</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06854492382367776</v>
+        <v>0.06854492382382903</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1785180272213989</v>
+        <v>0.1785180272213447</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2224051595728039</v>
+        <v>0.2224051595727</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1808622909714035</v>
+        <v>0.1808622909713307</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2722603002783718</v>
+        <v>0.2722603002784398</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1202695834425814</v>
+        <v>0.1202695834425925</v>
       </c>
       <c r="P7" t="n">
-        <v>0.09465434511849938</v>
+        <v>0.09465434511816616</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1359783175068307</v>
+        <v>0.1359783175051532</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1236637835245261</v>
+        <v>0.1236637835246309</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09739738273197278</v>
+        <v>0.09739738273178992</v>
       </c>
       <c r="T7" t="n">
-        <v>0.07159489359801884</v>
+        <v>0.07159489359778817</v>
       </c>
       <c r="U7" t="n">
-        <v>0.343854546643738</v>
+        <v>0.3438545466435485</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4086543059871678</v>
+        <v>0.4086543059873042</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3248017922114865</v>
+        <v>0.3248017922104004</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2309765410782281</v>
+        <v>0.2309765410786324</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.365884398429416</v>
+        <v>1.365884398429004</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.41955964764684</v>
+        <v>2.419559647646732</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1433271303709047</v>
+        <v>0.1433271303705478</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1475879387495689</v>
+        <v>0.1475879387491486</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.09673542012589741</v>
+        <v>0.0967354201263603</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.09295823729367143</v>
+        <v>0.09295823729363632</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.07712166365605182</v>
+        <v>0.07712166365663992</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.09461465334180229</v>
+        <v>0.09461465334231407</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.1040461136894599</v>
+        <v>0.1040461136885497</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.1082897115560412</v>
+        <v>0.1082897115559527</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.1181868519450269</v>
+        <v>0.1181868519451911</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2027779686739311</v>
+        <v>0.2027779686740878</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.08725876270874179</v>
+        <v>0.08725876270917703</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.1327249658893131</v>
+        <v>0.132724965889128</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.08486797353223474</v>
+        <v>0.08486797353255887</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0838047318516157</v>
+        <v>0.08380473185086605</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.09296328577638957</v>
+        <v>0.09296328577674232</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.1048576760775616</v>
+        <v>0.1048576760776923</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.1261067530753521</v>
+        <v>0.1261067530757203</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.1236096262449978</v>
+        <v>0.1236096262461666</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.1114158461084794</v>
+        <v>0.1114158461086846</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.07870346971581471</v>
+        <v>0.07870346971611329</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1406,136 +1406,136 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06601876881812586</v>
+        <v>0.06601876881833545</v>
       </c>
       <c r="D8" t="n">
-        <v>5.389080264522648</v>
+        <v>5.38908026452255</v>
       </c>
       <c r="E8" t="n">
-        <v>8.531147156427771</v>
+        <v>8.531147156428329</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4069833561794564</v>
+        <v>0.4069833561795964</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3316426162403359</v>
+        <v>0.3316426162400115</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2650877883436545</v>
+        <v>0.265087788343492</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1934293553216123</v>
+        <v>0.193429355322106</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2890933443896991</v>
+        <v>0.289093344390146</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2282307294491068</v>
+        <v>0.2282307294486891</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07876270040731594</v>
+        <v>0.07876270040880021</v>
       </c>
       <c r="M8" t="n">
-        <v>0.265494274426554</v>
+        <v>0.2654942744254042</v>
       </c>
       <c r="N8" t="n">
-        <v>2.151381715544486</v>
+        <v>2.151381715543548</v>
       </c>
       <c r="O8" t="n">
-        <v>2.512947696601966</v>
+        <v>2.51294769660155</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3247120565260465</v>
+        <v>0.3247120565263248</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7015079853784285</v>
+        <v>0.7015079853765962</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7424878652312565</v>
+        <v>0.7424878652301602</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08364963765819655</v>
+        <v>0.08364963765821137</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1195628248661148</v>
+        <v>0.1195628248662997</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1734823180634487</v>
+        <v>0.1734823180637899</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2230064904052099</v>
+        <v>0.2230064904048117</v>
       </c>
       <c r="W8" t="n">
-        <v>13.99977539869067</v>
+        <v>13.99977539869089</v>
       </c>
       <c r="X8" t="n">
-        <v>7.390709033533414</v>
+        <v>7.39070903353347</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.331978249620481</v>
+        <v>5.331978249620589</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.8034002525844</v>
+        <v>10.80340025258431</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1253488822905477</v>
+        <v>0.1253488822901175</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2123050936514748</v>
+        <v>0.2123050936504344</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.269646585909634</v>
+        <v>0.2696465859097822</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.4183480919474321</v>
+        <v>0.4183480919469176</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.4173609011747025</v>
+        <v>0.4173609011726101</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.563751311106806</v>
+        <v>0.563751311107261</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.09819312930846508</v>
+        <v>0.09819312930810979</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.2948935829375197</v>
+        <v>0.294893582938146</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.700498331571205</v>
+        <v>2.700498331571351</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.7055127193761942</v>
+        <v>0.7055127193762289</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.4810029840452403</v>
+        <v>0.481002984046198</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.2523135752117881</v>
+        <v>0.2523135752107742</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.4721619056192646</v>
+        <v>0.4721619056178231</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.227293494726021</v>
+        <v>1.22729349472579</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.1597991365378899</v>
+        <v>0.1597991365380005</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.5670467192147111</v>
+        <v>0.5670467192152947</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.2310852022673186</v>
+        <v>0.2310852022670685</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.3331304421048526</v>
+        <v>0.3331304421039166</v>
       </c>
       <c r="AS8" t="n">
-        <v>7.573898054981377</v>
+        <v>7.57389805498131</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.09331586743319931</v>
+        <v>0.09331586743324856</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1543,136 +1543,136 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07827123998226755</v>
+        <v>0.07827123998213859</v>
       </c>
       <c r="D9" t="n">
-        <v>1.173491498007817</v>
+        <v>1.173491498007095</v>
       </c>
       <c r="E9" t="n">
-        <v>1.543482102993864</v>
+        <v>1.543482102993231</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3833139121439911</v>
+        <v>0.3833139121427229</v>
       </c>
       <c r="G9" t="n">
-        <v>0.566579902553757</v>
+        <v>0.5665799025536502</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6767337465271183</v>
+        <v>0.6767337465271011</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2114561505762802</v>
+        <v>0.2114561505761118</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7719303501128307</v>
+        <v>0.7719303501130842</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9583668575500365</v>
+        <v>0.9583668575497022</v>
       </c>
       <c r="L9" t="n">
-        <v>0.139436667732612</v>
+        <v>0.1394366677325823</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8289812694805035</v>
+        <v>0.8289812694802764</v>
       </c>
       <c r="N9" t="n">
-        <v>1.356171968080162</v>
+        <v>1.356171968080755</v>
       </c>
       <c r="O9" t="n">
-        <v>1.391024005739203</v>
+        <v>1.391024005738494</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3385786950653161</v>
+        <v>0.3385786950649176</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.181439698143161</v>
+        <v>0.1814396981433474</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2422672268392063</v>
+        <v>0.242267226839196</v>
       </c>
       <c r="S9" t="n">
-        <v>2.078391067478047</v>
+        <v>2.078391067478104</v>
       </c>
       <c r="T9" t="n">
-        <v>1.892726007071737</v>
+        <v>1.892726007071673</v>
       </c>
       <c r="U9" t="n">
-        <v>1.747547279086567</v>
+        <v>1.747547279086788</v>
       </c>
       <c r="V9" t="n">
-        <v>1.721948060153526</v>
+        <v>1.721948060153677</v>
       </c>
       <c r="W9" t="n">
-        <v>2.379338209932904</v>
+        <v>2.379338209932233</v>
       </c>
       <c r="X9" t="n">
-        <v>1.612738761140075</v>
+        <v>1.612738761139393</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.489443592139404</v>
+        <v>2.489443592139641</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.904588397615287</v>
+        <v>9.904588397615353</v>
       </c>
       <c r="AA9" t="n">
-        <v>10.75555837650018</v>
+        <v>10.75555837650014</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.8747964010119752</v>
+        <v>0.8747964010119298</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6626950593739812</v>
+        <v>0.6626950593740081</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.7415160440455999</v>
+        <v>0.7415160440450582</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1645841559671346</v>
+        <v>0.1645841559671984</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.3967146266073837</v>
+        <v>0.396714626607411</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.3213383664629735</v>
+        <v>0.3213383664632347</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.430837322748262</v>
+        <v>1.430837322748228</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.2036075083100884</v>
+        <v>0.2036075083103146</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.6319431018406442</v>
+        <v>0.6319431018406562</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.6591533631694876</v>
+        <v>0.6591533631688233</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.4467074771141175</v>
+        <v>0.4467074771140566</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.274626243680031</v>
+        <v>1.274626243680055</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.5084640859529433</v>
+        <v>0.50846408595306</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.424537477076279</v>
+        <v>0.4245374770751108</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.7611566043573251</v>
+        <v>0.7611566043576987</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.863838212698214</v>
+        <v>3.863838212698242</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.7531000796265871</v>
+        <v>0.7531000796265888</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.1696752258984</v>
+        <v>3.169675225898448</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.2073099874544271</v>
+        <v>0.2073099874543544</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1680,136 +1680,136 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06722675805278239</v>
+        <v>0.06722675804670936</v>
       </c>
       <c r="D10" t="n">
-        <v>2.240440600577884</v>
+        <v>2.240440600573888</v>
       </c>
       <c r="E10" t="n">
-        <v>2.895386961869829</v>
+        <v>2.895386961855565</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2453015437522671</v>
+        <v>0.2453015437510663</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2762708050776465</v>
+        <v>0.2762708050777777</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2072754696237956</v>
+        <v>0.2072754696236594</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2419221709258388</v>
+        <v>0.2419221709152741</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7114605101560036</v>
+        <v>0.7114605101598445</v>
       </c>
       <c r="K10" t="n">
-        <v>1.091705350868515</v>
+        <v>1.091705350880133</v>
       </c>
       <c r="L10" t="n">
-        <v>4.56805869592573</v>
+        <v>4.568058695933705</v>
       </c>
       <c r="M10" t="n">
-        <v>5.473601467416466</v>
+        <v>5.47360146742015</v>
       </c>
       <c r="N10" t="n">
-        <v>1.071919040066799</v>
+        <v>1.071919040064937</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9968342352051029</v>
+        <v>0.9968342351969657</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2470406267749599</v>
+        <v>0.2470406267681554</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4843738996716774</v>
+        <v>0.4843738996701577</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4293001612474169</v>
+        <v>0.4293001612493524</v>
       </c>
       <c r="S10" t="n">
-        <v>4.567044786363327</v>
+        <v>4.567044786362608</v>
       </c>
       <c r="T10" t="n">
-        <v>4.062578572103901</v>
+        <v>4.062578572104462</v>
       </c>
       <c r="U10" t="n">
-        <v>1.103456556752582</v>
+        <v>1.103456556748245</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8776415770863029</v>
+        <v>0.8776415770841683</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5941357804638</v>
+        <v>1.594135780486755</v>
       </c>
       <c r="X10" t="n">
-        <v>1.018902015890353</v>
+        <v>1.018902015881153</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.3516792232404878</v>
+        <v>0.3516792232417286</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5709053390556409</v>
+        <v>0.5709053390557397</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.3596546294935293</v>
+        <v>0.3596546294929309</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.2893098497452756</v>
+        <v>0.2893098497449326</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.06225282713264894</v>
+        <v>0.06225282714290578</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.06668387057187214</v>
+        <v>0.06668387056864716</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1214012325289678</v>
+        <v>0.1214012325393494</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.172085235869891</v>
+        <v>5.172085235881361</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.3718701772673659</v>
+        <v>0.3718701772572933</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.2358630231926361</v>
+        <v>0.2358630232062672</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.2264865993045811</v>
+        <v>0.2264865993057227</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.913230019208649</v>
+        <v>2.913230019206426</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.4691729359371</v>
+        <v>0.4691729359405764</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.1132216043693171</v>
+        <v>0.11322160436374</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.2147422707125081</v>
+        <v>0.2147422707125646</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.08194398088186911</v>
+        <v>0.08194398088208543</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0529705779186351</v>
+        <v>0.05297057791861048</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.08697289819446798</v>
+        <v>0.08697289819660241</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.06153675853684201</v>
+        <v>0.06153675853594831</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.05264341679235313</v>
+        <v>0.05264341678722507</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.080215890256663</v>
+        <v>1.080215890254857</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.09915013874569321</v>
+        <v>0.09915013873235251</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1817,136 +1817,136 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07720051758528707</v>
+        <v>0.07720051758517509</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2137705392783081</v>
+        <v>0.213770539278147</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2529023521341619</v>
+        <v>0.2529023521345041</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1184061605224856</v>
+        <v>0.1184061605225213</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1251905735179072</v>
+        <v>0.1251905735178944</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2128771550917775</v>
+        <v>0.2128771550918118</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1092151123570766</v>
+        <v>0.1092151123570747</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1241926762286387</v>
+        <v>0.1241926762287084</v>
       </c>
       <c r="K11" t="n">
-        <v>0.132692485558785</v>
+        <v>0.1326924855584879</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1131197051065037</v>
+        <v>0.113119705106784</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1242245089523254</v>
+        <v>0.1242245089523544</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1472501127064866</v>
+        <v>0.147250112707456</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1514827852409281</v>
+        <v>0.1514827852415523</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07489628748203073</v>
+        <v>0.07489628748234843</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1147132809687183</v>
+        <v>0.1147132809687299</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1184683738576076</v>
+        <v>0.1184683738571515</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1311858363762187</v>
+        <v>0.1311858363761008</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1612023126233998</v>
+        <v>0.1612023126234548</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1427174342272147</v>
+        <v>0.1427174342273755</v>
       </c>
       <c r="V11" t="n">
-        <v>0.09390584411671041</v>
+        <v>0.09390584411637534</v>
       </c>
       <c r="W11" t="n">
-        <v>0.6234565892307375</v>
+        <v>0.6234565892301205</v>
       </c>
       <c r="X11" t="n">
-        <v>0.5512213131455455</v>
+        <v>0.5512213131455258</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.2336753773786755</v>
+        <v>0.2336753773786938</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.4581119716898325</v>
+        <v>0.4581119716897094</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2095074760072728</v>
+        <v>0.2095074760068713</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.2095603545224156</v>
+        <v>0.2095603545224139</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1090347102614115</v>
+        <v>0.1090347102615602</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.1487815113055171</v>
+        <v>0.1487815113054598</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0626540578626332</v>
+        <v>0.06265405786317522</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.080489895841711</v>
+        <v>0.08048989584144403</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1011337582960965</v>
+        <v>0.101133758296114</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.07221233859174042</v>
+        <v>0.072212338591902</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.09554411840894092</v>
+        <v>0.09554411840901195</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.2141918513197335</v>
+        <v>0.2141918513197193</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.06845237696958714</v>
+        <v>0.06845237696938178</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.09579999570629033</v>
+        <v>0.09579999570607234</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.12435036018879</v>
+        <v>0.1243503601887142</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.1211009374516182</v>
+        <v>0.1211009374518303</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.07554740003960275</v>
+        <v>0.07554740003960431</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.09787216947486749</v>
+        <v>0.09787216947493434</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.0844946304836411</v>
+        <v>0.08449463048380068</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.07708235841246233</v>
+        <v>0.07708235841264297</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.5686416918422896</v>
+        <v>0.5686416918424254</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.09054841224377194</v>
+        <v>0.09054841224367817</v>
       </c>
     </row>
   </sheetData>
@@ -2140,16 +2140,16 @@
         <v>2.298474025210385</v>
       </c>
       <c r="M2" t="n">
-        <v>5.664618201152539</v>
+        <v>5.642640179174517</v>
       </c>
       <c r="N2" t="n">
-        <v>6.605773319159698</v>
+        <v>6.591067436806758</v>
       </c>
       <c r="O2" t="n">
-        <v>7.252378285848268</v>
+        <v>7.240473523943506</v>
       </c>
       <c r="P2" t="n">
-        <v>7.458281877221454</v>
+        <v>7.456959832559171</v>
       </c>
       <c r="Q2" t="n">
         <v>6.362048645442176</v>
@@ -2247,7 +2247,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>7.481430377197298</v>
+        <v>7.481082364378948</v>
       </c>
       <c r="D3" t="n">
         <v>2.692882735112765</v>
@@ -2283,7 +2283,7 @@
         <v>6.11514556319231</v>
       </c>
       <c r="O3" t="n">
-        <v>7.505790248003861</v>
+        <v>7.507356666534766</v>
       </c>
       <c r="P3" t="n">
         <v>8.215736743527874</v>
@@ -2316,7 +2316,7 @@
         <v>4.719582385362364</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.475525626076238</v>
+        <v>5.470247990003766</v>
       </c>
       <c r="AA3" t="n">
         <v>6.877473854932724</v>
@@ -2373,7 +2373,7 @@
         <v>5.937962475874633</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.929457057153044</v>
+        <v>2.927662342167921</v>
       </c>
       <c r="AT3" t="n">
         <v>10.29712985716379</v>
@@ -2444,7 +2444,7 @@
         <v>5.908131392177009</v>
       </c>
       <c r="W4" t="n">
-        <v>3.842331760808036</v>
+        <v>3.802067727978437</v>
       </c>
       <c r="X4" t="n">
         <v>1.999040028703805</v>
@@ -2498,7 +2498,7 @@
         <v>6.452039332129551</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.159819919550312</v>
+        <v>3.176931022048222</v>
       </c>
       <c r="AP4" t="n">
         <v>7.192173177888817</v>
@@ -2510,10 +2510,10 @@
         <v>6.333161760715648</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.751314234755094</v>
+        <v>1.745298692928242</v>
       </c>
       <c r="AT4" t="n">
-        <v>9.737371898273695</v>
+        <v>9.737700687673879</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -2536,7 +2536,7 @@
         <v>7.935571443765745</v>
       </c>
       <c r="H5" t="n">
-        <v>4.015593464137011</v>
+        <v>4.004664502388377</v>
       </c>
       <c r="I5" t="n">
         <v>5.217958319057199</v>
@@ -2584,7 +2584,7 @@
         <v>6.562573882958728</v>
       </c>
       <c r="X5" t="n">
-        <v>5.57685234695805</v>
+        <v>5.578194628837244</v>
       </c>
       <c r="Y5" t="n">
         <v>9.16815696068633</v>
@@ -2769,7 +2769,7 @@
         <v>7.863816430368153</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.53025457988179</v>
+        <v>6.543241592868803</v>
       </c>
       <c r="AO6" t="n">
         <v>8.266710548719782</v>
@@ -2784,7 +2784,7 @@
         <v>5.954196310386873</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.364712197289648</v>
+        <v>4.367253001543648</v>
       </c>
       <c r="AT6" t="n">
         <v>10.22052361337794</v>
@@ -2924,7 +2924,7 @@
         <v>9.208784532524048</v>
       </c>
       <c r="AT7" t="n">
-        <v>10.08778491250724</v>
+        <v>10.08912629413031</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -2932,7 +2932,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>10.32406283203968</v>
+        <v>10.32536661300448</v>
       </c>
       <c r="D8" t="n">
         <v>2.090607411892067</v>
@@ -2965,7 +2965,7 @@
         <v>7.111118725587361</v>
       </c>
       <c r="N8" t="n">
-        <v>2.056081571748074</v>
+        <v>2.064520390313475</v>
       </c>
       <c r="O8" t="n">
         <v>4.412454728152747</v>
@@ -2989,7 +2989,7 @@
         <v>7.488138217273058</v>
       </c>
       <c r="V8" t="n">
-        <v>8.185029263366772</v>
+        <v>8.182841183650357</v>
       </c>
       <c r="W8" t="n">
         <v>3.634733737984031</v>
@@ -3058,7 +3058,7 @@
         <v>6.796251032220846</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.961758231919061</v>
+        <v>2.957339659675513</v>
       </c>
       <c r="AT8" t="n">
         <v>10.20410008485145</v>
@@ -3132,7 +3132,7 @@
         <v>3.319116314857276</v>
       </c>
       <c r="X9" t="n">
-        <v>3.577007838217355</v>
+        <v>3.573450529475529</v>
       </c>
       <c r="Y9" t="n">
         <v>5.090700762005818</v>
@@ -3198,7 +3198,7 @@
         <v>4.043868644971701</v>
       </c>
       <c r="AT9" t="n">
-        <v>8.766490448478745</v>
+        <v>8.766434209015896</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -3269,7 +3269,7 @@
         <v>2.613863996601369</v>
       </c>
       <c r="X10" t="n">
-        <v>3.338172981462136</v>
+        <v>3.340790521415082</v>
       </c>
       <c r="Y10" t="n">
         <v>7.265884191164958</v>
@@ -3293,7 +3293,7 @@
         <v>7.127445219443184</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.373658939011879</v>
+        <v>5.392024855692968</v>
       </c>
       <c r="AG10" t="n">
         <v>7.588723402656007</v>
@@ -3332,7 +3332,7 @@
         <v>8.316449577791619</v>
       </c>
       <c r="AS10" t="n">
-        <v>4.571180246786176</v>
+        <v>4.572974961771298</v>
       </c>
       <c r="AT10" t="n">
         <v>9.051964667834165</v>
@@ -3373,7 +3373,7 @@
         <v>7.302812965847569</v>
       </c>
       <c r="M11" t="n">
-        <v>7.158856018305743</v>
+        <v>7.145250576128872</v>
       </c>
       <c r="N11" t="n">
         <v>7.464435895137511</v>
@@ -3406,7 +3406,7 @@
         <v>5.718793659071933</v>
       </c>
       <c r="X11" t="n">
-        <v>5.695290547544838</v>
+        <v>5.693948265665643</v>
       </c>
       <c r="Y11" t="n">
         <v>8.24770856709349</v>
@@ -3469,7 +3469,7 @@
         <v>7.888131914615226</v>
       </c>
       <c r="AS11" t="n">
-        <v>6.300907355102782</v>
+        <v>6.298793275299631</v>
       </c>
       <c r="AT11" t="n">
         <v>10.05367893731633</v>
@@ -3636,136 +3636,136 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7333697493513197</v>
+        <v>0.7333697493516388</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7472344049028977</v>
+        <v>0.7472344049028817</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5212080415490236</v>
+        <v>0.5212080415491436</v>
       </c>
       <c r="F2" t="n">
-        <v>0.604592160309756</v>
+        <v>0.6045921603097744</v>
       </c>
       <c r="G2" t="n">
         <v>0.5786614848823858</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5881789345622827</v>
+        <v>0.5881789345621544</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6521155878294225</v>
+        <v>0.6521155878282886</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5761964467172631</v>
+        <v>0.5761964467172801</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6078432881948775</v>
+        <v>0.6078432881949519</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5799012467651617</v>
+        <v>0.5799012467651734</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5822558287049857</v>
+        <v>0.5822558287049852</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7280269438997499</v>
+        <v>0.7280269439008795</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5803413697074544</v>
+        <v>0.5803413697073876</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6723842620940543</v>
+        <v>0.6723842620939766</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6250203942516988</v>
+        <v>0.6250203942517547</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5950075474539798</v>
+        <v>0.5950075474544257</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5720449764354137</v>
+        <v>0.5720449764353843</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5712326199562749</v>
+        <v>0.5712326199560932</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6797992553784205</v>
+        <v>0.6797992553817483</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6394317644458023</v>
+        <v>0.6394317644458193</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5622237169392726</v>
+        <v>0.5622237169392794</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5533757327680278</v>
+        <v>0.55337573276805</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7164693177740099</v>
+        <v>0.7164693177741374</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6553661270504746</v>
+        <v>0.6553661270504112</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6312889246186262</v>
+        <v>0.6312889246185864</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6305563665977379</v>
+        <v>0.6305563665977451</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6304691830923176</v>
+        <v>0.6304691830923292</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.6328927856617099</v>
+        <v>0.6328927856617038</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6333699377796141</v>
+        <v>0.6333699377798392</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6589853185828481</v>
+        <v>0.6589853185826064</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.7047265042750561</v>
+        <v>0.70472650427502</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6950503790505526</v>
+        <v>0.695050379050512</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.6173920660660021</v>
+        <v>0.6173920660659742</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.6939370946609069</v>
+        <v>0.6939370946607315</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6041361768451271</v>
+        <v>0.6041361768451241</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.6773666584402417</v>
+        <v>0.6773666584400009</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.6026860498634968</v>
+        <v>0.6026860498634941</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.626994139083311</v>
+        <v>0.6269941390833185</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5893837380179393</v>
+        <v>0.5893837380179037</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6304880579521414</v>
+        <v>0.6304880579521462</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6686001857331331</v>
+        <v>0.6686001857332028</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.7446430403760246</v>
+        <v>0.7446430403762072</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.5840865883133579</v>
+        <v>0.5840865883133572</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.7476240999884323</v>
+        <v>0.7476240999885176</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -3773,136 +3773,136 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7435540289190298</v>
+        <v>0.7435540289190472</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6050951748228641</v>
+        <v>0.6050951748266953</v>
       </c>
       <c r="E3" t="n">
-        <v>0.498909338166194</v>
+        <v>0.4989093381661934</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5994720905437433</v>
+        <v>0.5994720905437536</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5701010110385452</v>
+        <v>0.5701010110385456</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7295559978318407</v>
+        <v>0.7295559978318218</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5849537943666363</v>
+        <v>0.5849537943671557</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5791239963413656</v>
+        <v>0.5791239963413646</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6015413814323106</v>
+        <v>0.6015413814323426</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5729742523943238</v>
+        <v>0.5729742523940917</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6326517023261777</v>
+        <v>0.6326517023286448</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6513269143558154</v>
+        <v>0.6513269143559259</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6519966105910752</v>
+        <v>0.6519966105912551</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5653113221955322</v>
+        <v>0.5653113221955255</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5818827143131113</v>
+        <v>0.5818827143131891</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6919690399396715</v>
+        <v>0.6919690399416956</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5650940103342752</v>
+        <v>0.5650940103342755</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5628366461904214</v>
+        <v>0.5628366461904216</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6015632933757867</v>
+        <v>0.6015632933783108</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5655478143359158</v>
+        <v>0.5655478143359155</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5873057480669021</v>
+        <v>0.5873057480670851</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5531471907058263</v>
+        <v>0.5531471907058262</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6223431198684432</v>
+        <v>0.6223431198683722</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.5717440612228478</v>
+        <v>0.5717440612228479</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.678812433240887</v>
+        <v>0.678812433239384</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6820136977081525</v>
+        <v>0.6820136977085969</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6385379340999453</v>
+        <v>0.6385379341000046</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.6409967490922556</v>
+        <v>0.6409967490922508</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.6303908229421166</v>
+        <v>0.6303908229421118</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6299806076724398</v>
+        <v>0.6299806076724331</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.6090366384689173</v>
+        <v>0.6090366384688555</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.6195411263993422</v>
+        <v>0.6195411263993577</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.6236821093168131</v>
+        <v>0.6236821093168126</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.6244677914891861</v>
+        <v>0.6244677914891826</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.6068349364827111</v>
+        <v>0.6068349364824631</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.6385359335097082</v>
+        <v>0.6385359335082893</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.6237539692031251</v>
+        <v>0.6237539692030784</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.6307062500146308</v>
+        <v>0.6307062500146406</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.7445627074700946</v>
+        <v>0.7445627074693817</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.663420193470749</v>
+        <v>0.663420193469698</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.6874494613561796</v>
+        <v>0.6874494613585127</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.6085974736105603</v>
+        <v>0.6085974736105574</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.5839162187362658</v>
+        <v>0.5839162187362662</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.6222000629249472</v>
+        <v>0.6222000629274068</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -3910,136 +3910,136 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7699854072542969</v>
+        <v>0.7699854072542156</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6543087887066085</v>
+        <v>0.6543087887058359</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4989947205492939</v>
+        <v>0.4989947205492941</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6332489951786888</v>
+        <v>0.6332489951785708</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5702832050698631</v>
+        <v>0.5702832050698625</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6577580137254259</v>
+        <v>0.6577580137279772</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5714778099531839</v>
+        <v>0.571477809953182</v>
       </c>
       <c r="J4" t="n">
-        <v>0.577138761118252</v>
+        <v>0.5771387611191657</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6252271196874759</v>
+        <v>0.6252271196871306</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7043464511089492</v>
+        <v>0.7043464511089117</v>
       </c>
       <c r="M4" t="n">
-        <v>0.625209663703277</v>
+        <v>0.6252096637031633</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5941384241956331</v>
+        <v>0.5941384241956955</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5753398575210404</v>
+        <v>0.5753398575210398</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6572736209202049</v>
+        <v>0.657273620930884</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6505901186643729</v>
+        <v>0.6505901186623826</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5620233893914047</v>
+        <v>0.5620233893911812</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6581903061585723</v>
+        <v>0.6581903061590231</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5661354501764624</v>
+        <v>0.5661354501764603</v>
       </c>
       <c r="U4" t="n">
-        <v>0.643697445276446</v>
+        <v>0.6436974452793984</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5713124299052931</v>
+        <v>0.5713124299052929</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5761739641778488</v>
+        <v>0.576173964177794</v>
       </c>
       <c r="X4" t="n">
         <v>0.5531511016264041</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.720345953364549</v>
+        <v>0.7203459533603763</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5764472467007472</v>
+        <v>0.5764472467007474</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6162313442204578</v>
+        <v>0.6162313442203209</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6240569194450082</v>
+        <v>0.6240569194450822</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6687964004798767</v>
+        <v>0.6687964004805969</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.628428006006437</v>
+        <v>0.6284280060064419</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.7195324383423162</v>
+        <v>0.7195324383425408</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.6245415780885656</v>
+        <v>0.6245415780885675</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.7261926705931099</v>
+        <v>0.7261926705923789</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.6925385565474935</v>
+        <v>0.692538556540523</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5985381045794467</v>
+        <v>0.5985381045794474</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.6507188458649165</v>
+        <v>0.6507188458648888</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6091519062410767</v>
+        <v>0.6091519062410742</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.6190326827702061</v>
+        <v>0.6190326827701886</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.610277052063232</v>
+        <v>0.6102770520634231</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.6445172918074626</v>
+        <v>0.6445172918074629</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.619487006396009</v>
+        <v>0.6194870063960127</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.6311173093369916</v>
+        <v>0.6311173093370362</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.6076941857952409</v>
+        <v>0.6076941857953456</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.6292976377910413</v>
+        <v>0.6292976377967336</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.583914761052408</v>
+        <v>0.5839147610524079</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.7382073494712083</v>
+        <v>0.7382073494704026</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -4047,136 +4047,136 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6773052221006824</v>
+        <v>0.6773052221022959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5885213030238233</v>
+        <v>0.5885213030246045</v>
       </c>
       <c r="E5" t="n">
-        <v>0.500225618578709</v>
+        <v>0.5002256185787167</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5655936638310113</v>
+        <v>0.5655936638310428</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6266762130646731</v>
+        <v>0.626676213064597</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6091522086217018</v>
+        <v>0.6091522086257578</v>
       </c>
       <c r="I5" t="n">
         <v>0.5807553113880931</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6257432931732748</v>
+        <v>0.6257432931749871</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5608792224531332</v>
+        <v>0.5608792224531329</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7003550436002943</v>
+        <v>0.7003550436008426</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5772475066101926</v>
+        <v>0.577247506610167</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5715748932284791</v>
+        <v>0.5715748932286014</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5803407993353937</v>
+        <v>0.5803407993353901</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5642357982966212</v>
+        <v>0.5642357982965207</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5796476959194677</v>
+        <v>0.5796476959194008</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6048392781346221</v>
+        <v>0.6048392781345943</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6749993938686218</v>
+        <v>0.6749993938683687</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5697041697146278</v>
+        <v>0.5697041697145884</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6347576938640995</v>
+        <v>0.6347576938637982</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6799041252048932</v>
+        <v>0.6799041252066768</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5768318767102374</v>
+        <v>0.5768318767102188</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5531358297868577</v>
+        <v>0.5531358297868579</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.621496174368271</v>
+        <v>0.6214961743675469</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6905475381155074</v>
+        <v>0.690547538115008</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.6943051536596178</v>
+        <v>0.6943051536601764</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6309624287152846</v>
+        <v>0.6309624287150526</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.6633505024891382</v>
+        <v>0.6633505024878298</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.5916087495345975</v>
+        <v>0.5916087495345982</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.6186809689711383</v>
+        <v>0.6186809689705982</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.62306153552668</v>
+        <v>0.6230615355268222</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.6833792833441434</v>
+        <v>0.683379283343194</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.6093628627993281</v>
+        <v>0.609362862799632</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.6258861817948834</v>
+        <v>0.6258861817948673</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.626907189636413</v>
+        <v>0.6269071896364143</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.5982523373249383</v>
+        <v>0.5982523373250337</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.6297869800784095</v>
+        <v>0.6297869800783388</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.5888865595750645</v>
+        <v>0.5888865595750538</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.623480950080923</v>
+        <v>0.6234809500768895</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.599265973747708</v>
+        <v>0.5992659737468538</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.6613533530051301</v>
+        <v>0.6613533530061285</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.5955270292191452</v>
+        <v>0.5955270292191114</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.6289224347500992</v>
+        <v>0.628922434742553</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.5838800822397364</v>
+        <v>0.5838800822397366</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.6608999114995118</v>
+        <v>0.660899911499404</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -4184,136 +4184,136 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6050090134895699</v>
+        <v>0.6050090134894779</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5569314501763789</v>
+        <v>0.5569314501718933</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4994122939321182</v>
+        <v>0.4994122939321405</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5811679424855776</v>
+        <v>0.5811679424827852</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5820442541782113</v>
+        <v>0.5820442541774561</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6195916727375359</v>
+        <v>0.6195916727360053</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6025006934305555</v>
+        <v>0.6025006934270685</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6372810083053209</v>
+        <v>0.6372810083078337</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5666228430712905</v>
+        <v>0.5666228430704541</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5633367758746687</v>
+        <v>0.5633367758746699</v>
       </c>
       <c r="M6" t="n">
-        <v>0.555188617743244</v>
+        <v>0.5551886177430594</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5852809778351502</v>
+        <v>0.585280977836812</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6031664470974243</v>
+        <v>0.6031664470958416</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5851236857078609</v>
+        <v>0.5851236857079668</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6094086791655317</v>
+        <v>0.6094086791654647</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5806392530090519</v>
+        <v>0.5806392530091429</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5967294801919706</v>
+        <v>0.5967294801908131</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5720895353543095</v>
+        <v>0.5720895353529906</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5694823285962912</v>
+        <v>0.5694823285967503</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5748378276252021</v>
+        <v>0.5748378276285762</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5768777986212025</v>
+        <v>0.5768777986197955</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5531535525343168</v>
+        <v>0.5531535525343172</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.574021419046671</v>
+        <v>0.5740214190504724</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5748021523642405</v>
+        <v>0.5748021523642406</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6178117503975001</v>
+        <v>0.6178117503925764</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6642644172273375</v>
+        <v>0.6642644172268098</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5897293583850954</v>
+        <v>0.5897293583817138</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.6585801426603652</v>
+        <v>0.6585801426630583</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.5719259507826837</v>
+        <v>0.5719259507825778</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7075027594468684</v>
+        <v>0.7075027594478908</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.5983933947878484</v>
+        <v>0.5983933947872576</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.609823770063577</v>
+        <v>0.6098237700661285</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6286225947133142</v>
+        <v>0.6286225947171062</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.6027225235988882</v>
+        <v>0.6027225235990883</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.591035409962735</v>
+        <v>0.5910354099643768</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.5989897999488069</v>
+        <v>0.5989897999492876</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.608312574109695</v>
+        <v>0.6083125741097505</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.6204041704865528</v>
+        <v>0.6204041704865394</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.6149728021143169</v>
+        <v>0.6149728021128841</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.619816452792733</v>
+        <v>0.6198164527910081</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.6076809722530194</v>
+        <v>0.6076809722521544</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.6337208227709679</v>
+        <v>0.6337208227680315</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.583911441827771</v>
+        <v>0.5839114418277715</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6006409786094504</v>
+        <v>0.6006409786071651</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -4321,136 +4321,136 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6178112987866428</v>
+        <v>0.6178112987862402</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6261934699553199</v>
+        <v>0.6261934699542078</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6925652567962495</v>
+        <v>0.6925652567962097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5627029418635668</v>
+        <v>0.562702941863566</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7052901848096517</v>
+        <v>0.7052901848087104</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6369677955407763</v>
+        <v>0.6369677955401919</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5705635189095571</v>
+        <v>0.5705635189095611</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6579580646762009</v>
+        <v>0.6579580646929561</v>
       </c>
       <c r="K7" t="n">
-        <v>0.652103578689321</v>
+        <v>0.6521035786916655</v>
       </c>
       <c r="L7" t="n">
-        <v>0.576679143577759</v>
+        <v>0.5766791435777754</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5775354271725834</v>
+        <v>0.5775354271723826</v>
       </c>
       <c r="N7" t="n">
-        <v>0.576092900915808</v>
+        <v>0.576092900915782</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6968181558729332</v>
+        <v>0.6968181558744347</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5670056113038301</v>
+        <v>0.5670056113035353</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6667599356293794</v>
+        <v>0.6667599356296535</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5810635930763356</v>
+        <v>0.5810635930758811</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5930920760289664</v>
+        <v>0.5930920760312599</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6433970963622557</v>
+        <v>0.6433970963622677</v>
       </c>
       <c r="U7" t="n">
-        <v>0.6349904940991226</v>
+        <v>0.6349904940961593</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5631823734288143</v>
+        <v>0.5631823734288489</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6181999245389358</v>
+        <v>0.6181999245413587</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5556093637818856</v>
+        <v>0.5556093637820247</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6129406857222118</v>
+        <v>0.612940685726347</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5668955614544878</v>
+        <v>0.5668955614544889</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.6478614987933097</v>
+        <v>0.6478614987939868</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.6240309051464311</v>
+        <v>0.6240309051463888</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.5967259402343477</v>
+        <v>0.5967259402324926</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6061746677341827</v>
+        <v>0.6061746677354938</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.6646414725857854</v>
+        <v>0.6646414725864462</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.6491799673575793</v>
+        <v>0.6491799673576114</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6961428188592247</v>
+        <v>0.6961428188569523</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6390206596438676</v>
+        <v>0.6390206596437895</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6796215164322793</v>
+        <v>0.6796215164314418</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.6358985351731613</v>
+        <v>0.6358985351727399</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.6129536529418981</v>
+        <v>0.6129536529441767</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.6199919629479504</v>
+        <v>0.6199919629478411</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.626680622443005</v>
+        <v>0.6266806224448008</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.6843223636450746</v>
+        <v>0.6843223636467268</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.6168635103896094</v>
+        <v>0.6168635103858776</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.5963617996663299</v>
+        <v>0.5963617996714913</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.6059797975703134</v>
+        <v>0.6059797975679114</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.6428650840762939</v>
+        <v>0.6428650840763802</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.5925584728406106</v>
+        <v>0.5925584728396688</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.6474042417061266</v>
+        <v>0.6474042417047526</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -4458,136 +4458,136 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6530473532485856</v>
+        <v>0.6530473532474812</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6946555838705153</v>
+        <v>0.6946555838709778</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4980249780476982</v>
+        <v>0.4980249780476983</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5679520846119853</v>
+        <v>0.5679520846120248</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6684900299404631</v>
+        <v>0.6684900299403626</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5771602125231344</v>
+        <v>0.577160212523154</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5654027731068142</v>
+        <v>0.5654027731068013</v>
       </c>
       <c r="J8" t="n">
-        <v>0.679808177664295</v>
+        <v>0.6798081776647315</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5659072917221919</v>
+        <v>0.5659072917218668</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6707559188411396</v>
+        <v>0.6707559188398609</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6466258102911022</v>
+        <v>0.6466258102936356</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5650331633361546</v>
+        <v>0.565033163335712</v>
       </c>
       <c r="O8" t="n">
         <v>0.5695249650634732</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5814164985423967</v>
+        <v>0.5814164985425155</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6221662450845004</v>
+        <v>0.622166245084103</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5679093957776004</v>
+        <v>0.5679093957776042</v>
       </c>
       <c r="S8" t="n">
-        <v>0.569496883556653</v>
+        <v>0.5694968835564562</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7116649350901989</v>
+        <v>0.7116649350880426</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5865820179979859</v>
+        <v>0.5865820179980087</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7203076704828799</v>
+        <v>0.7203076704828596</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5865511972514276</v>
+        <v>0.5865511972507901</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5531540871317515</v>
+        <v>0.5531540871317512</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6124543913060737</v>
+        <v>0.612454391312135</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5660919762791147</v>
+        <v>0.5660919762791148</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.6696885213524763</v>
+        <v>0.6696885213538791</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.6419680879039027</v>
+        <v>0.6419680879041205</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.6184082505782698</v>
+        <v>0.6184082505782693</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.6135252471211288</v>
+        <v>0.6135252471211118</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.6387740626690872</v>
+        <v>0.6387740626695083</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.607320691421747</v>
+        <v>0.6073206914217257</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.6165606241097539</v>
+        <v>0.6165606241101916</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.6332743800513168</v>
+        <v>0.6332743800513831</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6189142276088473</v>
+        <v>0.6189142276088502</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.6269723108484855</v>
+        <v>0.626972310848486</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.6124368640751986</v>
+        <v>0.6124368640751071</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.6276144236947186</v>
+        <v>0.6276144236948272</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.6197825201334277</v>
+        <v>0.6197825201334619</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.6091371129102467</v>
+        <v>0.6091371129102511</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.672408515511022</v>
+        <v>0.6724085155108291</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.6572797100226968</v>
+        <v>0.6572797100223853</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.6046433880641471</v>
+        <v>0.6046433880639637</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.6225877414010217</v>
+        <v>0.6225877414010409</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.5839142854040742</v>
+        <v>0.5839142854040744</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.7269499937482055</v>
+        <v>0.7269499937475987</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -4595,136 +4595,136 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6908748999529556</v>
+        <v>0.690874899953574</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6263341376784642</v>
+        <v>0.626334137675159</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5066524026466879</v>
+        <v>0.506652402646695</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6041199838200304</v>
+        <v>0.6041199838205614</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6190541951294931</v>
+        <v>0.6190541951294981</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5823564881389799</v>
+        <v>0.5823564881389575</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5744181197135886</v>
+        <v>0.5744181197134891</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5792121361038824</v>
+        <v>0.5792121361031821</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5765215010610762</v>
+        <v>0.5765215010610757</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5703334888728693</v>
+        <v>0.5703334888721417</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6271370821655646</v>
+        <v>0.62713708216404</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5730585779044806</v>
+        <v>0.57305857790448</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6155374735132612</v>
+        <v>0.615537473513312</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5914475401920772</v>
+        <v>0.5914475401923908</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.574192990424676</v>
+        <v>0.5741929904250301</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7268703097955657</v>
+        <v>0.7268703097954292</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7006962581360114</v>
+        <v>0.7006962581360523</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5820274105557761</v>
+        <v>0.5820274105557621</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5751800603603997</v>
+        <v>0.5751800603603885</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5680165085169488</v>
+        <v>0.5680165085169487</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5737657094471256</v>
+        <v>0.5737657094471311</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5531541314644151</v>
+        <v>0.5531541314644145</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6705555921768149</v>
+        <v>0.670555592175108</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.5878357969960532</v>
+        <v>0.5878357969960526</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.618017365140809</v>
+        <v>0.6180173651408094</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6679622822333705</v>
+        <v>0.6679622822333802</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6178449231457391</v>
+        <v>0.6178449231457263</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6253239678945566</v>
+        <v>0.6253239678945693</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.6223486637244561</v>
+        <v>0.6223486637242187</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.6227794677403539</v>
+        <v>0.6227794677403593</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.7164035965096074</v>
+        <v>0.7164035965090713</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.5978640949204654</v>
+        <v>0.5978640949204695</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.6866259822577453</v>
+        <v>0.6866259822574894</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.6462158692351644</v>
+        <v>0.6462158692351723</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.6024492784075859</v>
+        <v>0.6024492784075816</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.6337093240185879</v>
+        <v>0.6337093240186752</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.6068498980799284</v>
+        <v>0.6068498980799225</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.6357495566622358</v>
+        <v>0.6357495566619857</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.6104396662816308</v>
+        <v>0.6104396662817164</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.6258886822110071</v>
+        <v>0.6258886822110391</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.604373943752729</v>
+        <v>0.6043739437527297</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.6770927276339808</v>
+        <v>0.677092727633296</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.5838012885855717</v>
+        <v>0.5838012885855708</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.6300646520625814</v>
+        <v>0.6300646520629396</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -4732,136 +4732,136 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7290195148279708</v>
+        <v>0.7290195148385589</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7677451452750825</v>
+        <v>0.7677451452554714</v>
       </c>
       <c r="E10" t="n">
         <v>0.4986681245681215</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6120648316606327</v>
+        <v>0.6120648316539198</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5737070800497834</v>
+        <v>0.5737070800489754</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5968901830508324</v>
+        <v>0.5968901830474163</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5831728378565578</v>
+        <v>0.583172837858098</v>
       </c>
       <c r="J10" t="n">
-        <v>0.599930446399435</v>
+        <v>0.5999304463988794</v>
       </c>
       <c r="K10" t="n">
-        <v>0.580537111517017</v>
+        <v>0.5805371115169152</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7256174847117003</v>
+        <v>0.7256174847087205</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5741749328289716</v>
+        <v>0.5741749328289724</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7035510001933074</v>
+        <v>0.7035510001963542</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5614303321263925</v>
+        <v>0.5614303321263914</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6867585825527758</v>
+        <v>0.6867585825406198</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5741989205463355</v>
+        <v>0.5741989205462509</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5661877530295873</v>
+        <v>0.5661877530296063</v>
       </c>
       <c r="S10" t="n">
-        <v>0.575112724071671</v>
+        <v>0.5751127240750586</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5563365044289968</v>
+        <v>0.5563365044289966</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7382326850060336</v>
+        <v>0.738232684982482</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5615322639309944</v>
+        <v>0.5615322639309948</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6639250639310169</v>
+        <v>0.6639250639030468</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5531524259483752</v>
+        <v>0.5531524259483709</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7616213648772313</v>
+        <v>0.7616213648824396</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5709523651649285</v>
+        <v>0.5709523651649262</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6172964472409206</v>
+        <v>0.6172964472407085</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.6182548961695061</v>
+        <v>0.618254896169036</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.600755209598395</v>
+        <v>0.6007552095515442</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.6181854715230739</v>
+        <v>0.6181854715312496</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.6194244791878755</v>
+        <v>0.6194244791899214</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.6208952888613208</v>
+        <v>0.6208952888612886</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.6083823042923253</v>
+        <v>0.6083823042720697</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.6231568159970992</v>
+        <v>0.6231568159981044</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.6158112357152681</v>
+        <v>0.6158112357159812</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.6072637145926402</v>
+        <v>0.6072637145926167</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.5928871208497482</v>
+        <v>0.5928871208495189</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.6419265119268323</v>
+        <v>0.6419265119149422</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.5985653073991106</v>
+        <v>0.5985653073991163</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.6219906357762314</v>
+        <v>0.6219906357783641</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.6333931017378275</v>
+        <v>0.6333931017307318</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.6241591076841347</v>
+        <v>0.6241591076796544</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.6941089363691266</v>
+        <v>0.6941089363640307</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.6578473958523302</v>
+        <v>0.657847395896629</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.5839033764926476</v>
+        <v>0.5839033764926511</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.7068352885544519</v>
+        <v>0.7068352885822495</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -4869,136 +4869,136 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6159687348130369</v>
+        <v>0.6159687348177467</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6108736244477149</v>
+        <v>0.6108736244456966</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4993811941502404</v>
+        <v>0.4993811941502069</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6446574715747111</v>
+        <v>0.6446574715785179</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5768370170437396</v>
+        <v>0.576837017043538</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6718480798932759</v>
+        <v>0.6718480798928272</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5842957913412962</v>
+        <v>0.5842957913409196</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6710585363110443</v>
+        <v>0.6710585363127078</v>
       </c>
       <c r="K11" t="n">
-        <v>0.580292426343392</v>
+        <v>0.5802924263455279</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5756791959798758</v>
+        <v>0.5756791959794597</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6050973765352424</v>
+        <v>0.6050973765355294</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5712088677829198</v>
+        <v>0.5712088677817702</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5697188078856288</v>
+        <v>0.5697188078857222</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6570321013185506</v>
+        <v>0.6570321013206637</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6055548260419813</v>
+        <v>0.6055548260403255</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5829279386694886</v>
+        <v>0.5829279386667423</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5965615222220115</v>
+        <v>0.5965615222185811</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5737937692295831</v>
+        <v>0.5737937692292441</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5823124807133992</v>
+        <v>0.5823124807123097</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5842408277481141</v>
+        <v>0.5842408277487692</v>
       </c>
       <c r="W11" t="n">
-        <v>0.6141856929472526</v>
+        <v>0.6141856929457338</v>
       </c>
       <c r="X11" t="n">
-        <v>0.5531446054093592</v>
+        <v>0.5531446054093579</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.656703448289871</v>
+        <v>0.6567034482916235</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.5731706105599903</v>
+        <v>0.5731706105599913</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6479769232300634</v>
+        <v>0.6479769232301136</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.6259806286502806</v>
+        <v>0.6259806286502817</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6204788547311141</v>
+        <v>0.6204788547310716</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.6281366850422848</v>
+        <v>0.6281366850420996</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.6609678856524968</v>
+        <v>0.6609678856657297</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.6712251194975336</v>
+        <v>0.6712251194963115</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.6437217680121778</v>
+        <v>0.6437217680126959</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.6098977893597081</v>
+        <v>0.6098977893661234</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.6073637351130398</v>
+        <v>0.6073637351076804</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.6130942174615255</v>
+        <v>0.6130942174615406</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.5980415337156334</v>
+        <v>0.5980415337136338</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.6235487274152485</v>
+        <v>0.6235487274153489</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.6036948384535166</v>
+        <v>0.6036948384538108</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.6217910624320767</v>
+        <v>0.6217910624315641</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.591780253252752</v>
+        <v>0.5917802532469889</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.6372144768267094</v>
+        <v>0.6372144768261058</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.6310253324224582</v>
+        <v>0.63102533241999</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.6006140770826517</v>
+        <v>0.6006140770866295</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.5838903547904661</v>
+        <v>0.5838903547904649</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.6388814021323466</v>
+        <v>0.6388814021343605</v>
       </c>
     </row>
   </sheetData>
